--- a/attendance-files/SCM/SCM-R (ABCD) Attendance.xlsx
+++ b/attendance-files/SCM/SCM-R (ABCD) Attendance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="162">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -81,6 +81,9 @@
     <t>P</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>2024PGP018</t>
   </si>
   <si>
@@ -91,9 +94,6 @@
   </si>
   <si>
     <t>Ahamad Asim</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>2021IPM014</t>
@@ -1594,11 +1594,11 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1624,10 +1624,18 @@
       <c r="N7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
+      <c r="O7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S7" s="30"/>
       <c r="T7" s="30"/>
       <c r="U7" s="30"/>
@@ -1644,21 +1652,21 @@
         <v>2</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>20</v>
@@ -1684,10 +1692,18 @@
       <c r="N8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
+      <c r="O8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S8" s="35"/>
       <c r="T8" s="35"/>
       <c r="U8" s="35"/>
@@ -1704,10 +1720,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>9</v>
@@ -1718,7 +1734,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>20</v>
@@ -1739,15 +1755,23 @@
         <v>20</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N9" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
+        <v>21</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S9" s="35"/>
       <c r="T9" s="35"/>
       <c r="U9" s="35"/>
@@ -1778,36 +1802,44 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I10" s="29" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K10" s="29" t="s">
         <v>20</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
+      <c r="O10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S10" s="35"/>
       <c r="T10" s="35"/>
       <c r="U10" s="35"/>
@@ -1834,11 +1866,11 @@
       </c>
       <c r="E11" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>20</v>
@@ -1864,10 +1896,18 @@
       <c r="N11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
+      <c r="O11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S11" s="35"/>
       <c r="T11" s="35"/>
       <c r="U11" s="35"/>
@@ -1894,11 +1934,11 @@
       </c>
       <c r="E12" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>20</v>
@@ -1924,10 +1964,18 @@
       <c r="N12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
+      <c r="O12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S12" s="35"/>
       <c r="T12" s="35"/>
       <c r="U12" s="35"/>
@@ -1958,7 +2006,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>20</v>
@@ -1984,10 +2032,18 @@
       <c r="N13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
+      <c r="O13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S13" s="35"/>
       <c r="T13" s="35"/>
       <c r="U13" s="35"/>
@@ -2018,7 +2074,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>20</v>
@@ -2027,7 +2083,7 @@
         <v>20</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J14" s="29" t="s">
         <v>20</v>
@@ -2044,10 +2100,18 @@
       <c r="N14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
+      <c r="O14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S14" s="35"/>
       <c r="T14" s="35"/>
       <c r="U14" s="35"/>
@@ -2078,7 +2142,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>20</v>
@@ -2099,15 +2163,23 @@
         <v>20</v>
       </c>
       <c r="M15" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
+      <c r="O15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S15" s="35"/>
       <c r="T15" s="35"/>
       <c r="U15" s="35"/>
@@ -2134,11 +2206,11 @@
       </c>
       <c r="E16" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>20</v>
@@ -2164,10 +2236,18 @@
       <c r="N16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
+      <c r="O16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S16" s="35"/>
       <c r="T16" s="35"/>
       <c r="U16" s="35"/>
@@ -2194,11 +2274,11 @@
       </c>
       <c r="E17" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>20</v>
@@ -2219,15 +2299,23 @@
         <v>20</v>
       </c>
       <c r="M17" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
+      <c r="O17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S17" s="35"/>
       <c r="T17" s="35"/>
       <c r="U17" s="35"/>
@@ -2254,11 +2342,11 @@
       </c>
       <c r="E18" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>20</v>
@@ -2270,10 +2358,10 @@
         <v>20</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K18" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L18" s="29" t="s">
         <v>20</v>
@@ -2284,10 +2372,18 @@
       <c r="N18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
+      <c r="O18" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S18" s="35"/>
       <c r="T18" s="35"/>
       <c r="U18" s="35"/>
@@ -2314,11 +2410,11 @@
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>20</v>
@@ -2342,12 +2438,20 @@
         <v>20</v>
       </c>
       <c r="N19" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
+        <v>21</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S19" s="35"/>
       <c r="T19" s="35"/>
       <c r="U19" s="35"/>
@@ -2374,11 +2478,11 @@
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>20</v>
@@ -2396,7 +2500,7 @@
         <v>20</v>
       </c>
       <c r="L20" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M20" s="29" t="s">
         <v>20</v>
@@ -2404,10 +2508,18 @@
       <c r="N20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
+      <c r="O20" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S20" s="35"/>
       <c r="T20" s="35"/>
       <c r="U20" s="35"/>
@@ -2438,7 +2550,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>20</v>
@@ -2459,15 +2571,23 @@
         <v>20</v>
       </c>
       <c r="M21" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
+      <c r="O21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S21" s="35"/>
       <c r="T21" s="35"/>
       <c r="U21" s="35"/>
@@ -2498,7 +2618,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>20</v>
@@ -2524,10 +2644,18 @@
       <c r="N22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
+      <c r="O22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S22" s="35"/>
       <c r="T22" s="35"/>
       <c r="U22" s="35"/>
@@ -2558,7 +2686,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>20</v>
@@ -2579,15 +2707,23 @@
         <v>20</v>
       </c>
       <c r="M23" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
+      <c r="O23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S23" s="35"/>
       <c r="T23" s="35"/>
       <c r="U23" s="35"/>
@@ -2614,11 +2750,11 @@
       </c>
       <c r="E24" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>20</v>
@@ -2639,15 +2775,23 @@
         <v>20</v>
       </c>
       <c r="M24" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
+      <c r="O24" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S24" s="35"/>
       <c r="T24" s="35"/>
       <c r="U24" s="35"/>
@@ -2678,7 +2822,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>20</v>
@@ -2704,10 +2848,18 @@
       <c r="N25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
+      <c r="O25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S25" s="35"/>
       <c r="T25" s="35"/>
       <c r="U25" s="35"/>
@@ -2738,7 +2890,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>20</v>
@@ -2759,15 +2911,23 @@
         <v>20</v>
       </c>
       <c r="M26" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
+      <c r="O26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R26" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S26" s="35"/>
       <c r="T26" s="35"/>
       <c r="U26" s="35"/>
@@ -2794,11 +2954,11 @@
       </c>
       <c r="E27" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>20</v>
@@ -2824,10 +2984,18 @@
       <c r="N27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
+      <c r="O27" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R27" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S27" s="35"/>
       <c r="T27" s="35"/>
       <c r="U27" s="35"/>
@@ -2854,11 +3022,11 @@
       </c>
       <c r="E28" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>20</v>
@@ -2884,10 +3052,18 @@
       <c r="N28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
+      <c r="O28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R28" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S28" s="35"/>
       <c r="T28" s="35"/>
       <c r="U28" s="35"/>
@@ -2918,7 +3094,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>20</v>
@@ -2939,15 +3115,23 @@
         <v>20</v>
       </c>
       <c r="M29" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
+      <c r="O29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S29" s="35"/>
       <c r="T29" s="35"/>
       <c r="U29" s="35"/>
@@ -2978,7 +3162,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>20</v>
@@ -2990,13 +3174,13 @@
         <v>20</v>
       </c>
       <c r="J30" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K30" s="29" t="s">
         <v>20</v>
       </c>
       <c r="L30" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M30" s="29" t="s">
         <v>20</v>
@@ -3004,10 +3188,18 @@
       <c r="N30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
+      <c r="O30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R30" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S30" s="35"/>
       <c r="T30" s="35"/>
       <c r="U30" s="35"/>
@@ -3038,7 +3230,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>20</v>
@@ -3059,15 +3251,23 @@
         <v>20</v>
       </c>
       <c r="M31" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N31" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
+        <v>21</v>
+      </c>
+      <c r="O31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R31" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S31" s="35"/>
       <c r="T31" s="35"/>
       <c r="U31" s="35"/>
@@ -3098,7 +3298,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>20</v>
@@ -3124,10 +3324,18 @@
       <c r="N32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
+      <c r="O32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R32" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S32" s="35"/>
       <c r="T32" s="35"/>
       <c r="U32" s="35"/>
@@ -3158,16 +3366,16 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I33" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J33" s="29" t="s">
         <v>20</v>
@@ -3184,10 +3392,18 @@
       <c r="N33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
+      <c r="O33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R33" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S33" s="35"/>
       <c r="T33" s="35"/>
       <c r="U33" s="35"/>
@@ -3218,7 +3434,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>20</v>
@@ -3244,10 +3460,18 @@
       <c r="N34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
+      <c r="O34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R34" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S34" s="35"/>
       <c r="T34" s="35"/>
       <c r="U34" s="35"/>
@@ -3278,7 +3502,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>20</v>
@@ -3290,7 +3514,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K35" s="29" t="s">
         <v>20</v>
@@ -3304,10 +3528,18 @@
       <c r="N35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
+      <c r="O35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R35" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S35" s="35"/>
       <c r="T35" s="35"/>
       <c r="U35" s="35"/>
@@ -3334,11 +3566,11 @@
       </c>
       <c r="E36" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>20</v>
@@ -3364,10 +3596,18 @@
       <c r="N36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
+      <c r="O36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R36" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S36" s="35"/>
       <c r="T36" s="35"/>
       <c r="U36" s="35"/>
@@ -3398,7 +3638,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G37" s="28" t="s">
         <v>20</v>
@@ -3410,7 +3650,7 @@
         <v>20</v>
       </c>
       <c r="J37" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K37" s="29" t="s">
         <v>20</v>
@@ -3424,10 +3664,18 @@
       <c r="N37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
+      <c r="O37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R37" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S37" s="35"/>
       <c r="T37" s="35"/>
       <c r="U37" s="35"/>
@@ -3454,11 +3702,11 @@
       </c>
       <c r="E38" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>20</v>
@@ -3479,15 +3727,23 @@
         <v>20</v>
       </c>
       <c r="M38" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35"/>
+      <c r="O38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R38" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S38" s="35"/>
       <c r="T38" s="35"/>
       <c r="U38" s="35"/>
@@ -3518,7 +3774,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G39" s="28" t="s">
         <v>20</v>
@@ -3527,7 +3783,7 @@
         <v>20</v>
       </c>
       <c r="I39" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J39" s="29" t="s">
         <v>20</v>
@@ -3544,10 +3800,18 @@
       <c r="N39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
+      <c r="O39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R39" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S39" s="35"/>
       <c r="T39" s="35"/>
       <c r="U39" s="35"/>
@@ -3574,17 +3838,17 @@
       </c>
       <c r="E40" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H40" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I40" s="29" t="s">
         <v>20</v>
@@ -3604,10 +3868,18 @@
       <c r="N40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="35"/>
+      <c r="O40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R40" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S40" s="35"/>
       <c r="T40" s="35"/>
       <c r="U40" s="35"/>
@@ -3638,7 +3910,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>20</v>
@@ -3664,10 +3936,18 @@
       <c r="N41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
+      <c r="O41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R41" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S41" s="35"/>
       <c r="T41" s="35"/>
       <c r="U41" s="35"/>
@@ -3694,11 +3974,11 @@
       </c>
       <c r="E42" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>20</v>
@@ -3707,7 +3987,7 @@
         <v>20</v>
       </c>
       <c r="I42" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J42" s="29" t="s">
         <v>20</v>
@@ -3724,10 +4004,18 @@
       <c r="N42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
+      <c r="O42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R42" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S42" s="35"/>
       <c r="T42" s="35"/>
       <c r="U42" s="35"/>
@@ -3754,11 +4042,11 @@
       </c>
       <c r="E43" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G43" s="28" t="s">
         <v>20</v>
@@ -3784,10 +4072,18 @@
       <c r="N43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="35"/>
+      <c r="O43" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P43" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R43" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S43" s="35"/>
       <c r="T43" s="35"/>
       <c r="U43" s="35"/>
@@ -3814,11 +4110,11 @@
       </c>
       <c r="E44" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>20</v>
@@ -3844,10 +4140,18 @@
       <c r="N44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="35"/>
+      <c r="O44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R44" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S44" s="35"/>
       <c r="T44" s="35"/>
       <c r="U44" s="35"/>
@@ -3878,7 +4182,7 @@
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G45" s="28" t="s">
         <v>20</v>
@@ -3904,10 +4208,18 @@
       <c r="N45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="35"/>
+      <c r="O45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R45" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S45" s="35"/>
       <c r="T45" s="35"/>
       <c r="U45" s="35"/>
@@ -3934,11 +4246,11 @@
       </c>
       <c r="E46" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G46" s="28" t="s">
         <v>20</v>
@@ -3959,15 +4271,23 @@
         <v>20</v>
       </c>
       <c r="M46" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O46" s="35"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="35"/>
-      <c r="R46" s="35"/>
+      <c r="O46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P46" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S46" s="35"/>
       <c r="T46" s="35"/>
       <c r="U46" s="35"/>
@@ -3994,11 +4314,11 @@
       </c>
       <c r="E47" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G47" s="28" t="s">
         <v>20</v>
@@ -4019,15 +4339,23 @@
         <v>20</v>
       </c>
       <c r="M47" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O47" s="35"/>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="35"/>
+      <c r="O47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P47" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R47" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S47" s="35"/>
       <c r="T47" s="35"/>
       <c r="U47" s="35"/>
@@ -4058,7 +4386,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G48" s="28" t="s">
         <v>20</v>
@@ -4070,7 +4398,7 @@
         <v>20</v>
       </c>
       <c r="J48" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K48" s="29" t="s">
         <v>20</v>
@@ -4084,10 +4412,18 @@
       <c r="N48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="35"/>
+      <c r="O48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R48" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S48" s="35"/>
       <c r="T48" s="35"/>
       <c r="U48" s="35"/>
@@ -4114,11 +4450,11 @@
       </c>
       <c r="E49" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G49" s="28" t="s">
         <v>20</v>
@@ -4130,7 +4466,7 @@
         <v>20</v>
       </c>
       <c r="J49" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K49" s="29" t="s">
         <v>20</v>
@@ -4142,12 +4478,20 @@
         <v>20</v>
       </c>
       <c r="N49" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35"/>
+        <v>21</v>
+      </c>
+      <c r="O49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R49" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S49" s="35"/>
       <c r="T49" s="35"/>
       <c r="U49" s="35"/>
@@ -4174,11 +4518,11 @@
       </c>
       <c r="E50" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>20</v>
@@ -4204,10 +4548,18 @@
       <c r="N50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="35"/>
+      <c r="O50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R50" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S50" s="35"/>
       <c r="T50" s="35"/>
       <c r="U50" s="35"/>
@@ -4234,11 +4586,11 @@
       </c>
       <c r="E51" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>20</v>
@@ -4259,15 +4611,23 @@
         <v>20</v>
       </c>
       <c r="M51" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
+      <c r="O51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P51" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q51" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R51" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S51" s="35"/>
       <c r="T51" s="35"/>
       <c r="U51" s="35"/>
@@ -4298,7 +4658,7 @@
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G52" s="28" t="s">
         <v>20</v>
@@ -4324,10 +4684,18 @@
       <c r="N52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="35"/>
+      <c r="O52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R52" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S52" s="35"/>
       <c r="T52" s="35"/>
       <c r="U52" s="35"/>
@@ -4358,7 +4726,7 @@
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G53" s="28" t="s">
         <v>20</v>
@@ -4384,10 +4752,18 @@
       <c r="N53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35"/>
+      <c r="O53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R53" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S53" s="35"/>
       <c r="T53" s="35"/>
       <c r="U53" s="35"/>
@@ -4418,7 +4794,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G54" s="28" t="s">
         <v>20</v>
@@ -4427,7 +4803,7 @@
         <v>20</v>
       </c>
       <c r="I54" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J54" s="29" t="s">
         <v>20</v>
@@ -4439,15 +4815,23 @@
         <v>20</v>
       </c>
       <c r="M54" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O54" s="35"/>
-      <c r="P54" s="35"/>
-      <c r="Q54" s="35"/>
-      <c r="R54" s="35"/>
+      <c r="O54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R54" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S54" s="35"/>
       <c r="T54" s="35"/>
       <c r="U54" s="35"/>
@@ -4478,7 +4862,7 @@
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G55" s="28" t="s">
         <v>20</v>
@@ -4499,15 +4883,23 @@
         <v>20</v>
       </c>
       <c r="M55" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35"/>
+      <c r="O55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R55" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S55" s="35"/>
       <c r="T55" s="35"/>
       <c r="U55" s="35"/>
@@ -4534,11 +4926,11 @@
       </c>
       <c r="E56" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G56" s="28" t="s">
         <v>20</v>
@@ -4559,15 +4951,23 @@
         <v>20</v>
       </c>
       <c r="M56" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O56" s="35"/>
-      <c r="P56" s="35"/>
-      <c r="Q56" s="35"/>
-      <c r="R56" s="35"/>
+      <c r="O56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R56" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S56" s="35"/>
       <c r="T56" s="35"/>
       <c r="U56" s="35"/>
@@ -4594,11 +4994,11 @@
       </c>
       <c r="E57" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G57" s="28" t="s">
         <v>20</v>
@@ -4624,10 +5024,18 @@
       <c r="N57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
-      <c r="Q57" s="35"/>
-      <c r="R57" s="35"/>
+      <c r="O57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P57" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R57" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S57" s="35"/>
       <c r="T57" s="35"/>
       <c r="U57" s="35"/>
@@ -4654,40 +5062,48 @@
       </c>
       <c r="E58" s="26">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G58" s="28" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H58" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I58" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J58" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K58" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L58" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M58" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N58" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="35"/>
+        <v>21</v>
+      </c>
+      <c r="O58" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P58" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q58" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R58" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S58" s="35"/>
       <c r="T58" s="35"/>
       <c r="U58" s="35"/>
@@ -4714,11 +5130,11 @@
       </c>
       <c r="E59" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G59" s="28" t="s">
         <v>20</v>
@@ -4730,7 +5146,7 @@
         <v>20</v>
       </c>
       <c r="J59" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K59" s="29" t="s">
         <v>20</v>
@@ -4739,15 +5155,23 @@
         <v>20</v>
       </c>
       <c r="M59" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35"/>
+      <c r="O59" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R59" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S59" s="35"/>
       <c r="T59" s="35"/>
       <c r="U59" s="35"/>
@@ -4774,11 +5198,11 @@
       </c>
       <c r="E60" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G60" s="28" t="s">
         <v>20</v>
@@ -4799,15 +5223,23 @@
         <v>20</v>
       </c>
       <c r="M60" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N60" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O60" s="35"/>
-      <c r="P60" s="35"/>
-      <c r="Q60" s="35"/>
-      <c r="R60" s="35"/>
+      <c r="O60" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R60" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S60" s="35"/>
       <c r="T60" s="35"/>
       <c r="U60" s="35"/>
@@ -4834,11 +5266,11 @@
       </c>
       <c r="E61" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G61" s="28" t="s">
         <v>20</v>
@@ -4859,15 +5291,23 @@
         <v>20</v>
       </c>
       <c r="M61" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="35"/>
-      <c r="R61" s="35"/>
+      <c r="O61" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R61" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S61" s="35"/>
       <c r="T61" s="35"/>
       <c r="U61" s="35"/>
@@ -4894,11 +5334,11 @@
       </c>
       <c r="E62" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G62" s="28" t="s">
         <v>20</v>
@@ -4919,15 +5359,23 @@
         <v>20</v>
       </c>
       <c r="M62" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O62" s="35"/>
-      <c r="P62" s="35"/>
-      <c r="Q62" s="35"/>
-      <c r="R62" s="35"/>
+      <c r="O62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R62" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S62" s="35"/>
       <c r="T62" s="35"/>
       <c r="U62" s="35"/>
@@ -4958,7 +5406,7 @@
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G63" s="28" t="s">
         <v>20</v>
@@ -4984,10 +5432,18 @@
       <c r="N63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
-      <c r="R63" s="35"/>
+      <c r="O63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R63" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S63" s="35"/>
       <c r="T63" s="35"/>
       <c r="U63" s="35"/>
@@ -5018,7 +5474,7 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G64" s="28" t="s">
         <v>20</v>
@@ -5044,10 +5500,18 @@
       <c r="N64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
-      <c r="R64" s="35"/>
+      <c r="O64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R64" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S64" s="35"/>
       <c r="T64" s="35"/>
       <c r="U64" s="35"/>
@@ -5074,11 +5538,11 @@
       </c>
       <c r="E65" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G65" s="28" t="s">
         <v>20</v>
@@ -5096,7 +5560,7 @@
         <v>20</v>
       </c>
       <c r="L65" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M65" s="29" t="s">
         <v>20</v>
@@ -5104,10 +5568,18 @@
       <c r="N65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="35"/>
-      <c r="R65" s="35"/>
+      <c r="O65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q65" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R65" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S65" s="35"/>
       <c r="T65" s="35"/>
       <c r="U65" s="35"/>
@@ -5134,11 +5606,11 @@
       </c>
       <c r="E66" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G66" s="28" t="s">
         <v>20</v>
@@ -5159,15 +5631,23 @@
         <v>20</v>
       </c>
       <c r="M66" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
-      <c r="R66" s="35"/>
+      <c r="O66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q66" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R66" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S66" s="35"/>
       <c r="T66" s="35"/>
       <c r="U66" s="35"/>
@@ -5194,11 +5674,11 @@
       </c>
       <c r="E67" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G67" s="28" t="s">
         <v>20</v>
@@ -5216,7 +5696,7 @@
         <v>20</v>
       </c>
       <c r="L67" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M67" s="29" t="s">
         <v>20</v>
@@ -5224,10 +5704,18 @@
       <c r="N67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="35"/>
-      <c r="R67" s="35"/>
+      <c r="O67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q67" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R67" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S67" s="35"/>
       <c r="T67" s="35"/>
       <c r="U67" s="35"/>
@@ -5254,11 +5742,11 @@
       </c>
       <c r="E68" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G68" s="28" t="s">
         <v>20</v>
@@ -5279,15 +5767,23 @@
         <v>20</v>
       </c>
       <c r="M68" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O68" s="35"/>
-      <c r="P68" s="35"/>
-      <c r="Q68" s="35"/>
-      <c r="R68" s="35"/>
+      <c r="O68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q68" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R68" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S68" s="35"/>
       <c r="T68" s="35"/>
       <c r="U68" s="35"/>
@@ -5314,11 +5810,11 @@
       </c>
       <c r="E69" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G69" s="28" t="s">
         <v>20</v>
@@ -5344,10 +5840,18 @@
       <c r="N69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="35"/>
-      <c r="R69" s="35"/>
+      <c r="O69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q69" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R69" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S69" s="35"/>
       <c r="T69" s="35"/>
       <c r="U69" s="35"/>
@@ -5378,7 +5882,7 @@
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G70" s="28" t="s">
         <v>20</v>
@@ -5404,10 +5908,18 @@
       <c r="N70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O70" s="35"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35"/>
+      <c r="O70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R70" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S70" s="35"/>
       <c r="T70" s="35"/>
       <c r="U70" s="35"/>
@@ -5438,7 +5950,7 @@
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G71" s="28" t="s">
         <v>20</v>
@@ -5464,10 +5976,18 @@
       <c r="N71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O71" s="35"/>
-      <c r="P71" s="35"/>
-      <c r="Q71" s="35"/>
-      <c r="R71" s="35"/>
+      <c r="O71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R71" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S71" s="35"/>
       <c r="T71" s="35"/>
       <c r="U71" s="35"/>
@@ -5494,11 +6014,11 @@
       </c>
       <c r="E72" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G72" s="28" t="s">
         <v>20</v>
@@ -5522,12 +6042,20 @@
         <v>20</v>
       </c>
       <c r="N72" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="O72" s="35"/>
-      <c r="P72" s="35"/>
-      <c r="Q72" s="35"/>
-      <c r="R72" s="35"/>
+        <v>21</v>
+      </c>
+      <c r="O72" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R72" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S72" s="35"/>
       <c r="T72" s="35"/>
       <c r="U72" s="35"/>
@@ -5554,11 +6082,11 @@
       </c>
       <c r="E73" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G73" s="28" t="s">
         <v>20</v>
@@ -5582,12 +6110,20 @@
         <v>20</v>
       </c>
       <c r="N73" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="O73" s="35"/>
-      <c r="P73" s="35"/>
-      <c r="Q73" s="35"/>
-      <c r="R73" s="35"/>
+        <v>21</v>
+      </c>
+      <c r="O73" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R73" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S73" s="35"/>
       <c r="T73" s="35"/>
       <c r="U73" s="35"/>
@@ -5618,22 +6154,22 @@
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G74" s="28" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H74" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I74" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J74" s="29" t="s">
         <v>20</v>
       </c>
       <c r="K74" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L74" s="29" t="s">
         <v>20</v>
@@ -5644,10 +6180,18 @@
       <c r="N74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O74" s="35"/>
-      <c r="P74" s="35"/>
-      <c r="Q74" s="35"/>
-      <c r="R74" s="35"/>
+      <c r="O74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R74" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S74" s="35"/>
       <c r="T74" s="35"/>
       <c r="U74" s="35"/>
@@ -5678,7 +6222,7 @@
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G75" s="28" t="s">
         <v>20</v>
@@ -5690,7 +6234,7 @@
         <v>20</v>
       </c>
       <c r="J75" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K75" s="29" t="s">
         <v>20</v>
@@ -5699,15 +6243,23 @@
         <v>20</v>
       </c>
       <c r="M75" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O75" s="35"/>
-      <c r="P75" s="35"/>
-      <c r="Q75" s="35"/>
-      <c r="R75" s="35"/>
+      <c r="O75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R75" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S75" s="35"/>
       <c r="T75" s="35"/>
       <c r="U75" s="35"/>
@@ -5734,11 +6286,11 @@
       </c>
       <c r="E76" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G76" s="28" t="s">
         <v>20</v>
@@ -5759,15 +6311,23 @@
         <v>20</v>
       </c>
       <c r="M76" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O76" s="35"/>
-      <c r="P76" s="35"/>
-      <c r="Q76" s="35"/>
-      <c r="R76" s="35"/>
+      <c r="O76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P76" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R76" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S76" s="35"/>
       <c r="T76" s="35"/>
       <c r="U76" s="35"/>
@@ -5794,11 +6354,11 @@
       </c>
       <c r="E77" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G77" s="28" t="s">
         <v>20</v>
@@ -5819,15 +6379,23 @@
         <v>20</v>
       </c>
       <c r="M77" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O77" s="35"/>
-      <c r="P77" s="35"/>
-      <c r="Q77" s="35"/>
-      <c r="R77" s="35"/>
+      <c r="O77" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R77" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S77" s="35"/>
       <c r="T77" s="35"/>
       <c r="U77" s="35"/>

--- a/attendance-files/SCM/SCM-R (ABCD) Attendance.xlsx
+++ b/attendance-files/SCM/SCM-R (ABCD) Attendance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="162">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1637,7 +1637,9 @@
         <v>20</v>
       </c>
       <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
+      <c r="T7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U7" s="30"/>
       <c r="V7" s="30"/>
       <c r="W7" s="30"/>
@@ -1666,7 +1668,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>20</v>
@@ -1705,7 +1707,9 @@
         <v>20</v>
       </c>
       <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
+      <c r="T8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U8" s="35"/>
       <c r="V8" s="35"/>
       <c r="W8" s="35"/>
@@ -1734,7 +1738,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>20</v>
@@ -1773,7 +1777,9 @@
         <v>20</v>
       </c>
       <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
+      <c r="T9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U9" s="35"/>
       <c r="V9" s="35"/>
       <c r="W9" s="35"/>
@@ -1802,7 +1808,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>21</v>
@@ -1841,7 +1847,9 @@
         <v>20</v>
       </c>
       <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
+      <c r="T10" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U10" s="35"/>
       <c r="V10" s="35"/>
       <c r="W10" s="35"/>
@@ -1870,7 +1878,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>20</v>
@@ -1909,7 +1917,9 @@
         <v>20</v>
       </c>
       <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
+      <c r="T11" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U11" s="35"/>
       <c r="V11" s="35"/>
       <c r="W11" s="35"/>
@@ -1938,7 +1948,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>20</v>
@@ -1977,7 +1987,9 @@
         <v>20</v>
       </c>
       <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
+      <c r="T12" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U12" s="35"/>
       <c r="V12" s="35"/>
       <c r="W12" s="35"/>
@@ -2006,7 +2018,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>20</v>
@@ -2045,7 +2057,9 @@
         <v>20</v>
       </c>
       <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
+      <c r="T13" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U13" s="35"/>
       <c r="V13" s="35"/>
       <c r="W13" s="35"/>
@@ -2074,7 +2088,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>20</v>
@@ -2113,7 +2127,9 @@
         <v>20</v>
       </c>
       <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
+      <c r="T14" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U14" s="35"/>
       <c r="V14" s="35"/>
       <c r="W14" s="35"/>
@@ -2142,7 +2158,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>20</v>
@@ -2181,7 +2197,9 @@
         <v>20</v>
       </c>
       <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
+      <c r="T15" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U15" s="35"/>
       <c r="V15" s="35"/>
       <c r="W15" s="35"/>
@@ -2210,7 +2228,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>20</v>
@@ -2249,7 +2267,9 @@
         <v>20</v>
       </c>
       <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
+      <c r="T16" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U16" s="35"/>
       <c r="V16" s="35"/>
       <c r="W16" s="35"/>
@@ -2278,7 +2298,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>20</v>
@@ -2317,7 +2337,9 @@
         <v>21</v>
       </c>
       <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
+      <c r="T17" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U17" s="35"/>
       <c r="V17" s="35"/>
       <c r="W17" s="35"/>
@@ -2346,7 +2368,7 @@
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>20</v>
@@ -2385,7 +2407,9 @@
         <v>20</v>
       </c>
       <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
+      <c r="T18" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U18" s="35"/>
       <c r="V18" s="35"/>
       <c r="W18" s="35"/>
@@ -2414,7 +2438,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>20</v>
@@ -2453,7 +2477,9 @@
         <v>20</v>
       </c>
       <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
+      <c r="T19" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U19" s="35"/>
       <c r="V19" s="35"/>
       <c r="W19" s="35"/>
@@ -2478,7 +2504,7 @@
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
@@ -2521,7 +2547,9 @@
         <v>21</v>
       </c>
       <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
+      <c r="T20" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U20" s="35"/>
       <c r="V20" s="35"/>
       <c r="W20" s="35"/>
@@ -2550,7 +2578,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>20</v>
@@ -2589,7 +2617,9 @@
         <v>20</v>
       </c>
       <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
+      <c r="T21" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U21" s="35"/>
       <c r="V21" s="35"/>
       <c r="W21" s="35"/>
@@ -2618,7 +2648,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>20</v>
@@ -2657,7 +2687,9 @@
         <v>20</v>
       </c>
       <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
+      <c r="T22" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U22" s="35"/>
       <c r="V22" s="35"/>
       <c r="W22" s="35"/>
@@ -2686,7 +2718,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>20</v>
@@ -2725,7 +2757,9 @@
         <v>20</v>
       </c>
       <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
+      <c r="T23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U23" s="35"/>
       <c r="V23" s="35"/>
       <c r="W23" s="35"/>
@@ -2754,7 +2788,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>20</v>
@@ -2793,7 +2827,9 @@
         <v>20</v>
       </c>
       <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
+      <c r="T24" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U24" s="35"/>
       <c r="V24" s="35"/>
       <c r="W24" s="35"/>
@@ -2822,7 +2858,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>20</v>
@@ -2861,7 +2897,9 @@
         <v>20</v>
       </c>
       <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
+      <c r="T25" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U25" s="35"/>
       <c r="V25" s="35"/>
       <c r="W25" s="35"/>
@@ -2890,7 +2928,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>20</v>
@@ -2929,7 +2967,9 @@
         <v>20</v>
       </c>
       <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
+      <c r="T26" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U26" s="35"/>
       <c r="V26" s="35"/>
       <c r="W26" s="35"/>
@@ -2958,7 +2998,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>20</v>
@@ -2997,7 +3037,9 @@
         <v>20</v>
       </c>
       <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
+      <c r="T27" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U27" s="35"/>
       <c r="V27" s="35"/>
       <c r="W27" s="35"/>
@@ -3022,7 +3064,7 @@
       </c>
       <c r="E28" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
@@ -3065,7 +3107,9 @@
         <v>21</v>
       </c>
       <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
+      <c r="T28" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U28" s="35"/>
       <c r="V28" s="35"/>
       <c r="W28" s="35"/>
@@ -3094,7 +3138,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>20</v>
@@ -3133,7 +3177,9 @@
         <v>20</v>
       </c>
       <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
+      <c r="T29" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U29" s="35"/>
       <c r="V29" s="35"/>
       <c r="W29" s="35"/>
@@ -3162,7 +3208,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>20</v>
@@ -3201,7 +3247,9 @@
         <v>20</v>
       </c>
       <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
+      <c r="T30" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U30" s="35"/>
       <c r="V30" s="35"/>
       <c r="W30" s="35"/>
@@ -3230,7 +3278,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>20</v>
@@ -3269,7 +3317,9 @@
         <v>20</v>
       </c>
       <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
+      <c r="T31" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U31" s="35"/>
       <c r="V31" s="35"/>
       <c r="W31" s="35"/>
@@ -3298,7 +3348,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>20</v>
@@ -3337,7 +3387,9 @@
         <v>20</v>
       </c>
       <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
+      <c r="T32" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U32" s="35"/>
       <c r="V32" s="35"/>
       <c r="W32" s="35"/>
@@ -3366,7 +3418,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G33" s="28" t="s">
         <v>21</v>
@@ -3405,7 +3457,9 @@
         <v>20</v>
       </c>
       <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
+      <c r="T33" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U33" s="35"/>
       <c r="V33" s="35"/>
       <c r="W33" s="35"/>
@@ -3434,7 +3488,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>20</v>
@@ -3473,7 +3527,9 @@
         <v>20</v>
       </c>
       <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
+      <c r="T34" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U34" s="35"/>
       <c r="V34" s="35"/>
       <c r="W34" s="35"/>
@@ -3502,7 +3558,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>20</v>
@@ -3541,7 +3597,9 @@
         <v>20</v>
       </c>
       <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
+      <c r="T35" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U35" s="35"/>
       <c r="V35" s="35"/>
       <c r="W35" s="35"/>
@@ -3570,7 +3628,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>20</v>
@@ -3609,7 +3667,9 @@
         <v>20</v>
       </c>
       <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
+      <c r="T36" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U36" s="35"/>
       <c r="V36" s="35"/>
       <c r="W36" s="35"/>
@@ -3638,7 +3698,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G37" s="28" t="s">
         <v>20</v>
@@ -3677,7 +3737,9 @@
         <v>20</v>
       </c>
       <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
+      <c r="T37" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U37" s="35"/>
       <c r="V37" s="35"/>
       <c r="W37" s="35"/>
@@ -3706,7 +3768,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>20</v>
@@ -3745,7 +3807,9 @@
         <v>20</v>
       </c>
       <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
+      <c r="T38" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U38" s="35"/>
       <c r="V38" s="35"/>
       <c r="W38" s="35"/>
@@ -3774,7 +3838,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G39" s="28" t="s">
         <v>20</v>
@@ -3813,7 +3877,9 @@
         <v>20</v>
       </c>
       <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
+      <c r="T39" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U39" s="35"/>
       <c r="V39" s="35"/>
       <c r="W39" s="35"/>
@@ -3842,7 +3908,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G40" s="28" t="s">
         <v>21</v>
@@ -3881,7 +3947,9 @@
         <v>20</v>
       </c>
       <c r="S40" s="35"/>
-      <c r="T40" s="35"/>
+      <c r="T40" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U40" s="35"/>
       <c r="V40" s="35"/>
       <c r="W40" s="35"/>
@@ -3910,7 +3978,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>20</v>
@@ -3949,7 +4017,9 @@
         <v>20</v>
       </c>
       <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
+      <c r="T41" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U41" s="35"/>
       <c r="V41" s="35"/>
       <c r="W41" s="35"/>
@@ -3978,7 +4048,7 @@
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>20</v>
@@ -4017,7 +4087,9 @@
         <v>20</v>
       </c>
       <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
+      <c r="T42" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U42" s="35"/>
       <c r="V42" s="35"/>
       <c r="W42" s="35"/>
@@ -4046,7 +4118,7 @@
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G43" s="28" t="s">
         <v>20</v>
@@ -4085,7 +4157,9 @@
         <v>21</v>
       </c>
       <c r="S43" s="35"/>
-      <c r="T43" s="35"/>
+      <c r="T43" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U43" s="35"/>
       <c r="V43" s="35"/>
       <c r="W43" s="35"/>
@@ -4114,7 +4188,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>20</v>
@@ -4153,7 +4227,9 @@
         <v>21</v>
       </c>
       <c r="S44" s="35"/>
-      <c r="T44" s="35"/>
+      <c r="T44" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U44" s="35"/>
       <c r="V44" s="35"/>
       <c r="W44" s="35"/>
@@ -4182,7 +4258,7 @@
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" s="28" t="s">
         <v>20</v>
@@ -4221,7 +4297,9 @@
         <v>20</v>
       </c>
       <c r="S45" s="35"/>
-      <c r="T45" s="35"/>
+      <c r="T45" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U45" s="35"/>
       <c r="V45" s="35"/>
       <c r="W45" s="35"/>
@@ -4250,7 +4328,7 @@
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G46" s="28" t="s">
         <v>20</v>
@@ -4289,7 +4367,9 @@
         <v>20</v>
       </c>
       <c r="S46" s="35"/>
-      <c r="T46" s="35"/>
+      <c r="T46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U46" s="35"/>
       <c r="V46" s="35"/>
       <c r="W46" s="35"/>
@@ -4318,7 +4398,7 @@
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G47" s="28" t="s">
         <v>20</v>
@@ -4357,7 +4437,9 @@
         <v>20</v>
       </c>
       <c r="S47" s="35"/>
-      <c r="T47" s="35"/>
+      <c r="T47" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U47" s="35"/>
       <c r="V47" s="35"/>
       <c r="W47" s="35"/>
@@ -4386,7 +4468,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G48" s="28" t="s">
         <v>20</v>
@@ -4425,7 +4507,9 @@
         <v>20</v>
       </c>
       <c r="S48" s="35"/>
-      <c r="T48" s="35"/>
+      <c r="T48" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U48" s="35"/>
       <c r="V48" s="35"/>
       <c r="W48" s="35"/>
@@ -4454,7 +4538,7 @@
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G49" s="28" t="s">
         <v>20</v>
@@ -4493,7 +4577,9 @@
         <v>21</v>
       </c>
       <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
+      <c r="T49" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U49" s="35"/>
       <c r="V49" s="35"/>
       <c r="W49" s="35"/>
@@ -4522,7 +4608,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>20</v>
@@ -4561,7 +4647,9 @@
         <v>20</v>
       </c>
       <c r="S50" s="35"/>
-      <c r="T50" s="35"/>
+      <c r="T50" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U50" s="35"/>
       <c r="V50" s="35"/>
       <c r="W50" s="35"/>
@@ -4590,7 +4678,7 @@
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>20</v>
@@ -4629,7 +4717,9 @@
         <v>21</v>
       </c>
       <c r="S51" s="35"/>
-      <c r="T51" s="35"/>
+      <c r="T51" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U51" s="35"/>
       <c r="V51" s="35"/>
       <c r="W51" s="35"/>
@@ -4658,7 +4748,7 @@
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" s="28" t="s">
         <v>20</v>
@@ -4697,7 +4787,9 @@
         <v>20</v>
       </c>
       <c r="S52" s="35"/>
-      <c r="T52" s="35"/>
+      <c r="T52" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U52" s="35"/>
       <c r="V52" s="35"/>
       <c r="W52" s="35"/>
@@ -4726,7 +4818,7 @@
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" s="28" t="s">
         <v>20</v>
@@ -4765,7 +4857,9 @@
         <v>20</v>
       </c>
       <c r="S53" s="35"/>
-      <c r="T53" s="35"/>
+      <c r="T53" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U53" s="35"/>
       <c r="V53" s="35"/>
       <c r="W53" s="35"/>
@@ -4794,7 +4888,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G54" s="28" t="s">
         <v>20</v>
@@ -4833,7 +4927,9 @@
         <v>20</v>
       </c>
       <c r="S54" s="35"/>
-      <c r="T54" s="35"/>
+      <c r="T54" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U54" s="35"/>
       <c r="V54" s="35"/>
       <c r="W54" s="35"/>
@@ -4862,7 +4958,7 @@
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G55" s="28" t="s">
         <v>20</v>
@@ -4901,7 +4997,9 @@
         <v>20</v>
       </c>
       <c r="S55" s="35"/>
-      <c r="T55" s="35"/>
+      <c r="T55" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U55" s="35"/>
       <c r="V55" s="35"/>
       <c r="W55" s="35"/>
@@ -4930,7 +5028,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G56" s="28" t="s">
         <v>20</v>
@@ -4969,7 +5067,9 @@
         <v>21</v>
       </c>
       <c r="S56" s="35"/>
-      <c r="T56" s="35"/>
+      <c r="T56" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U56" s="35"/>
       <c r="V56" s="35"/>
       <c r="W56" s="35"/>
@@ -4998,7 +5098,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G57" s="28" t="s">
         <v>20</v>
@@ -5037,7 +5137,9 @@
         <v>20</v>
       </c>
       <c r="S57" s="35"/>
-      <c r="T57" s="35"/>
+      <c r="T57" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U57" s="35"/>
       <c r="V57" s="35"/>
       <c r="W57" s="35"/>
@@ -5062,7 +5164,7 @@
       </c>
       <c r="E58" s="26">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
@@ -5105,7 +5207,9 @@
         <v>21</v>
       </c>
       <c r="S58" s="35"/>
-      <c r="T58" s="35"/>
+      <c r="T58" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U58" s="35"/>
       <c r="V58" s="35"/>
       <c r="W58" s="35"/>
@@ -5134,7 +5238,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G59" s="28" t="s">
         <v>20</v>
@@ -5173,7 +5277,9 @@
         <v>20</v>
       </c>
       <c r="S59" s="35"/>
-      <c r="T59" s="35"/>
+      <c r="T59" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U59" s="35"/>
       <c r="V59" s="35"/>
       <c r="W59" s="35"/>
@@ -5202,7 +5308,7 @@
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G60" s="28" t="s">
         <v>20</v>
@@ -5241,7 +5347,9 @@
         <v>20</v>
       </c>
       <c r="S60" s="35"/>
-      <c r="T60" s="35"/>
+      <c r="T60" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U60" s="35"/>
       <c r="V60" s="35"/>
       <c r="W60" s="35"/>
@@ -5270,7 +5378,7 @@
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G61" s="28" t="s">
         <v>20</v>
@@ -5309,7 +5417,9 @@
         <v>21</v>
       </c>
       <c r="S61" s="35"/>
-      <c r="T61" s="35"/>
+      <c r="T61" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U61" s="35"/>
       <c r="V61" s="35"/>
       <c r="W61" s="35"/>
@@ -5334,7 +5444,7 @@
       </c>
       <c r="E62" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
@@ -5377,7 +5487,9 @@
         <v>21</v>
       </c>
       <c r="S62" s="35"/>
-      <c r="T62" s="35"/>
+      <c r="T62" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U62" s="35"/>
       <c r="V62" s="35"/>
       <c r="W62" s="35"/>
@@ -5406,7 +5518,7 @@
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" s="28" t="s">
         <v>20</v>
@@ -5445,7 +5557,9 @@
         <v>20</v>
       </c>
       <c r="S63" s="35"/>
-      <c r="T63" s="35"/>
+      <c r="T63" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U63" s="35"/>
       <c r="V63" s="35"/>
       <c r="W63" s="35"/>
@@ -5474,7 +5588,7 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" s="28" t="s">
         <v>20</v>
@@ -5513,7 +5627,9 @@
         <v>20</v>
       </c>
       <c r="S64" s="35"/>
-      <c r="T64" s="35"/>
+      <c r="T64" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U64" s="35"/>
       <c r="V64" s="35"/>
       <c r="W64" s="35"/>
@@ -5538,7 +5654,7 @@
       </c>
       <c r="E65" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
@@ -5581,7 +5697,9 @@
         <v>20</v>
       </c>
       <c r="S65" s="35"/>
-      <c r="T65" s="35"/>
+      <c r="T65" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U65" s="35"/>
       <c r="V65" s="35"/>
       <c r="W65" s="35"/>
@@ -5610,7 +5728,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G66" s="28" t="s">
         <v>20</v>
@@ -5649,7 +5767,9 @@
         <v>20</v>
       </c>
       <c r="S66" s="35"/>
-      <c r="T66" s="35"/>
+      <c r="T66" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U66" s="35"/>
       <c r="V66" s="35"/>
       <c r="W66" s="35"/>
@@ -5678,7 +5798,7 @@
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G67" s="28" t="s">
         <v>20</v>
@@ -5717,7 +5837,9 @@
         <v>20</v>
       </c>
       <c r="S67" s="35"/>
-      <c r="T67" s="35"/>
+      <c r="T67" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U67" s="35"/>
       <c r="V67" s="35"/>
       <c r="W67" s="35"/>
@@ -5746,7 +5868,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G68" s="28" t="s">
         <v>20</v>
@@ -5785,7 +5907,9 @@
         <v>20</v>
       </c>
       <c r="S68" s="35"/>
-      <c r="T68" s="35"/>
+      <c r="T68" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U68" s="35"/>
       <c r="V68" s="35"/>
       <c r="W68" s="35"/>
@@ -5810,7 +5934,7 @@
       </c>
       <c r="E69" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
@@ -5853,7 +5977,9 @@
         <v>20</v>
       </c>
       <c r="S69" s="35"/>
-      <c r="T69" s="35"/>
+      <c r="T69" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U69" s="35"/>
       <c r="V69" s="35"/>
       <c r="W69" s="35"/>
@@ -5882,7 +6008,7 @@
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" s="28" t="s">
         <v>20</v>
@@ -5921,7 +6047,9 @@
         <v>20</v>
       </c>
       <c r="S70" s="35"/>
-      <c r="T70" s="35"/>
+      <c r="T70" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U70" s="35"/>
       <c r="V70" s="35"/>
       <c r="W70" s="35"/>
@@ -5950,7 +6078,7 @@
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" s="28" t="s">
         <v>20</v>
@@ -5989,7 +6117,9 @@
         <v>20</v>
       </c>
       <c r="S71" s="35"/>
-      <c r="T71" s="35"/>
+      <c r="T71" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U71" s="35"/>
       <c r="V71" s="35"/>
       <c r="W71" s="35"/>
@@ -6018,7 +6148,7 @@
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G72" s="28" t="s">
         <v>20</v>
@@ -6057,7 +6187,9 @@
         <v>20</v>
       </c>
       <c r="S72" s="35"/>
-      <c r="T72" s="35"/>
+      <c r="T72" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U72" s="35"/>
       <c r="V72" s="35"/>
       <c r="W72" s="35"/>
@@ -6086,7 +6218,7 @@
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G73" s="28" t="s">
         <v>20</v>
@@ -6125,7 +6257,9 @@
         <v>20</v>
       </c>
       <c r="S73" s="35"/>
-      <c r="T73" s="35"/>
+      <c r="T73" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U73" s="35"/>
       <c r="V73" s="35"/>
       <c r="W73" s="35"/>
@@ -6154,7 +6288,7 @@
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G74" s="28" t="s">
         <v>21</v>
@@ -6193,7 +6327,9 @@
         <v>20</v>
       </c>
       <c r="S74" s="35"/>
-      <c r="T74" s="35"/>
+      <c r="T74" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U74" s="35"/>
       <c r="V74" s="35"/>
       <c r="W74" s="35"/>
@@ -6222,7 +6358,7 @@
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G75" s="28" t="s">
         <v>20</v>
@@ -6261,7 +6397,9 @@
         <v>20</v>
       </c>
       <c r="S75" s="35"/>
-      <c r="T75" s="35"/>
+      <c r="T75" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U75" s="35"/>
       <c r="V75" s="35"/>
       <c r="W75" s="35"/>
@@ -6290,7 +6428,7 @@
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G76" s="28" t="s">
         <v>20</v>
@@ -6329,7 +6467,9 @@
         <v>20</v>
       </c>
       <c r="S76" s="35"/>
-      <c r="T76" s="35"/>
+      <c r="T76" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U76" s="35"/>
       <c r="V76" s="35"/>
       <c r="W76" s="35"/>
@@ -6358,7 +6498,7 @@
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G77" s="28" t="s">
         <v>20</v>
@@ -6397,7 +6537,9 @@
         <v>20</v>
       </c>
       <c r="S77" s="35"/>
-      <c r="T77" s="35"/>
+      <c r="T77" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U77" s="35"/>
       <c r="V77" s="35"/>
       <c r="W77" s="35"/>

--- a/attendance-files/SCM/SCM-R (ABCD) Attendance.xlsx
+++ b/attendance-files/SCM/SCM-R (ABCD) Attendance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="162">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1636,11 +1636,15 @@
       <c r="R7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="30"/>
+      <c r="S7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U7" s="30"/>
+      <c r="U7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V7" s="30"/>
       <c r="W7" s="30"/>
       <c r="X7" s="30"/>
@@ -1668,7 +1672,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>20</v>
@@ -1706,11 +1710,15 @@
       <c r="R8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="35"/>
+      <c r="S8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="35"/>
+      <c r="U8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V8" s="35"/>
       <c r="W8" s="35"/>
       <c r="X8" s="35"/>
@@ -1738,7 +1746,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>20</v>
@@ -1776,11 +1784,15 @@
       <c r="R9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="35"/>
+      <c r="S9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U9" s="35"/>
+      <c r="U9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V9" s="35"/>
       <c r="W9" s="35"/>
       <c r="X9" s="35"/>
@@ -1808,7 +1820,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>21</v>
@@ -1846,11 +1858,15 @@
       <c r="R10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="35"/>
+      <c r="S10" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="35"/>
+      <c r="U10" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V10" s="35"/>
       <c r="W10" s="35"/>
       <c r="X10" s="35"/>
@@ -1874,11 +1890,11 @@
       </c>
       <c r="E11" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>20</v>
@@ -1916,11 +1932,15 @@
       <c r="R11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="35"/>
+      <c r="S11" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U11" s="35"/>
+      <c r="U11" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="V11" s="35"/>
       <c r="W11" s="35"/>
       <c r="X11" s="35"/>
@@ -1948,7 +1968,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>20</v>
@@ -1986,11 +2006,15 @@
       <c r="R12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="35"/>
+      <c r="S12" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U12" s="35"/>
+      <c r="U12" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V12" s="35"/>
       <c r="W12" s="35"/>
       <c r="X12" s="35"/>
@@ -2018,7 +2042,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>20</v>
@@ -2056,11 +2080,15 @@
       <c r="R13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S13" s="35"/>
+      <c r="S13" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U13" s="35"/>
+      <c r="U13" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V13" s="35"/>
       <c r="W13" s="35"/>
       <c r="X13" s="35"/>
@@ -2088,7 +2116,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>20</v>
@@ -2126,11 +2154,15 @@
       <c r="R14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="35"/>
+      <c r="S14" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U14" s="35"/>
+      <c r="U14" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V14" s="35"/>
       <c r="W14" s="35"/>
       <c r="X14" s="35"/>
@@ -2158,7 +2190,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>20</v>
@@ -2196,11 +2228,15 @@
       <c r="R15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="35"/>
+      <c r="S15" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U15" s="35"/>
+      <c r="U15" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V15" s="35"/>
       <c r="W15" s="35"/>
       <c r="X15" s="35"/>
@@ -2228,7 +2264,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>20</v>
@@ -2266,11 +2302,15 @@
       <c r="R16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S16" s="35"/>
+      <c r="S16" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U16" s="35"/>
+      <c r="U16" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V16" s="35"/>
       <c r="W16" s="35"/>
       <c r="X16" s="35"/>
@@ -2298,7 +2338,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>20</v>
@@ -2336,11 +2376,15 @@
       <c r="R17" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S17" s="35"/>
+      <c r="S17" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U17" s="35"/>
+      <c r="U17" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V17" s="35"/>
       <c r="W17" s="35"/>
       <c r="X17" s="35"/>
@@ -2368,7 +2412,7 @@
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>20</v>
@@ -2406,11 +2450,15 @@
       <c r="R18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S18" s="35"/>
+      <c r="S18" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U18" s="35"/>
+      <c r="U18" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V18" s="35"/>
       <c r="W18" s="35"/>
       <c r="X18" s="35"/>
@@ -2438,7 +2486,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>20</v>
@@ -2476,11 +2524,15 @@
       <c r="R19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S19" s="35"/>
+      <c r="S19" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U19" s="35"/>
+      <c r="U19" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V19" s="35"/>
       <c r="W19" s="35"/>
       <c r="X19" s="35"/>
@@ -2504,11 +2556,11 @@
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>20</v>
@@ -2546,11 +2598,15 @@
       <c r="R20" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S20" s="35"/>
+      <c r="S20" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T20" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U20" s="35"/>
+      <c r="U20" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="V20" s="35"/>
       <c r="W20" s="35"/>
       <c r="X20" s="35"/>
@@ -2574,11 +2630,11 @@
       </c>
       <c r="E21" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>20</v>
@@ -2616,11 +2672,15 @@
       <c r="R21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S21" s="35"/>
+      <c r="S21" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U21" s="35"/>
+      <c r="U21" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="V21" s="35"/>
       <c r="W21" s="35"/>
       <c r="X21" s="35"/>
@@ -2648,7 +2708,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>20</v>
@@ -2686,11 +2746,15 @@
       <c r="R22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S22" s="35"/>
+      <c r="S22" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U22" s="35"/>
+      <c r="U22" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V22" s="35"/>
       <c r="W22" s="35"/>
       <c r="X22" s="35"/>
@@ -2718,7 +2782,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>20</v>
@@ -2756,11 +2820,15 @@
       <c r="R23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S23" s="35"/>
+      <c r="S23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U23" s="35"/>
+      <c r="U23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V23" s="35"/>
       <c r="W23" s="35"/>
       <c r="X23" s="35"/>
@@ -2784,11 +2852,11 @@
       </c>
       <c r="E24" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>20</v>
@@ -2826,11 +2894,15 @@
       <c r="R24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S24" s="35"/>
+      <c r="S24" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U24" s="35"/>
+      <c r="U24" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="V24" s="35"/>
       <c r="W24" s="35"/>
       <c r="X24" s="35"/>
@@ -2858,7 +2930,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>20</v>
@@ -2896,11 +2968,15 @@
       <c r="R25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S25" s="35"/>
+      <c r="S25" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U25" s="35"/>
+      <c r="U25" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V25" s="35"/>
       <c r="W25" s="35"/>
       <c r="X25" s="35"/>
@@ -2928,7 +3004,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>20</v>
@@ -2966,11 +3042,15 @@
       <c r="R26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S26" s="35"/>
+      <c r="S26" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U26" s="35"/>
+      <c r="U26" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V26" s="35"/>
       <c r="W26" s="35"/>
       <c r="X26" s="35"/>
@@ -2998,7 +3078,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>20</v>
@@ -3036,11 +3116,15 @@
       <c r="R27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S27" s="35"/>
+      <c r="S27" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U27" s="35"/>
+      <c r="U27" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V27" s="35"/>
       <c r="W27" s="35"/>
       <c r="X27" s="35"/>
@@ -3064,11 +3148,11 @@
       </c>
       <c r="E28" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>20</v>
@@ -3106,11 +3190,15 @@
       <c r="R28" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S28" s="35"/>
+      <c r="S28" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="T28" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U28" s="35"/>
+      <c r="U28" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V28" s="35"/>
       <c r="W28" s="35"/>
       <c r="X28" s="35"/>
@@ -3138,7 +3226,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>20</v>
@@ -3176,11 +3264,15 @@
       <c r="R29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S29" s="35"/>
+      <c r="S29" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U29" s="35"/>
+      <c r="U29" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V29" s="35"/>
       <c r="W29" s="35"/>
       <c r="X29" s="35"/>
@@ -3208,7 +3300,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>20</v>
@@ -3246,11 +3338,15 @@
       <c r="R30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S30" s="35"/>
+      <c r="S30" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U30" s="35"/>
+      <c r="U30" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V30" s="35"/>
       <c r="W30" s="35"/>
       <c r="X30" s="35"/>
@@ -3278,7 +3374,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>20</v>
@@ -3316,11 +3412,15 @@
       <c r="R31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S31" s="35"/>
+      <c r="S31" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U31" s="35"/>
+      <c r="U31" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V31" s="35"/>
       <c r="W31" s="35"/>
       <c r="X31" s="35"/>
@@ -3344,11 +3444,11 @@
       </c>
       <c r="E32" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>20</v>
@@ -3386,11 +3486,15 @@
       <c r="R32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S32" s="35"/>
+      <c r="S32" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U32" s="35"/>
+      <c r="U32" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="V32" s="35"/>
       <c r="W32" s="35"/>
       <c r="X32" s="35"/>
@@ -3418,7 +3522,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G33" s="28" t="s">
         <v>21</v>
@@ -3456,11 +3560,15 @@
       <c r="R33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S33" s="35"/>
+      <c r="S33" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U33" s="35"/>
+      <c r="U33" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V33" s="35"/>
       <c r="W33" s="35"/>
       <c r="X33" s="35"/>
@@ -3488,7 +3596,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>20</v>
@@ -3526,11 +3634,15 @@
       <c r="R34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S34" s="35"/>
+      <c r="S34" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U34" s="35"/>
+      <c r="U34" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V34" s="35"/>
       <c r="W34" s="35"/>
       <c r="X34" s="35"/>
@@ -3558,7 +3670,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>20</v>
@@ -3596,11 +3708,15 @@
       <c r="R35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S35" s="35"/>
+      <c r="S35" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U35" s="35"/>
+      <c r="U35" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V35" s="35"/>
       <c r="W35" s="35"/>
       <c r="X35" s="35"/>
@@ -3628,7 +3744,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>20</v>
@@ -3666,11 +3782,15 @@
       <c r="R36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S36" s="35"/>
+      <c r="S36" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U36" s="35"/>
+      <c r="U36" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V36" s="35"/>
       <c r="W36" s="35"/>
       <c r="X36" s="35"/>
@@ -3698,7 +3818,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G37" s="28" t="s">
         <v>20</v>
@@ -3736,11 +3856,15 @@
       <c r="R37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S37" s="35"/>
+      <c r="S37" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U37" s="35"/>
+      <c r="U37" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V37" s="35"/>
       <c r="W37" s="35"/>
       <c r="X37" s="35"/>
@@ -3764,11 +3888,11 @@
       </c>
       <c r="E38" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>20</v>
@@ -3806,11 +3930,15 @@
       <c r="R38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S38" s="35"/>
+      <c r="S38" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U38" s="35"/>
+      <c r="U38" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="V38" s="35"/>
       <c r="W38" s="35"/>
       <c r="X38" s="35"/>
@@ -3838,7 +3966,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G39" s="28" t="s">
         <v>20</v>
@@ -3876,11 +4004,15 @@
       <c r="R39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S39" s="35"/>
+      <c r="S39" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U39" s="35"/>
+      <c r="U39" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V39" s="35"/>
       <c r="W39" s="35"/>
       <c r="X39" s="35"/>
@@ -3908,7 +4040,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G40" s="28" t="s">
         <v>21</v>
@@ -3946,11 +4078,15 @@
       <c r="R40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S40" s="35"/>
+      <c r="S40" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U40" s="35"/>
+      <c r="U40" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V40" s="35"/>
       <c r="W40" s="35"/>
       <c r="X40" s="35"/>
@@ -3978,7 +4114,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>20</v>
@@ -4016,11 +4152,15 @@
       <c r="R41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S41" s="35"/>
+      <c r="S41" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U41" s="35"/>
+      <c r="U41" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V41" s="35"/>
       <c r="W41" s="35"/>
       <c r="X41" s="35"/>
@@ -4048,7 +4188,7 @@
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>20</v>
@@ -4086,11 +4226,15 @@
       <c r="R42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S42" s="35"/>
+      <c r="S42" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U42" s="35"/>
+      <c r="U42" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V42" s="35"/>
       <c r="W42" s="35"/>
       <c r="X42" s="35"/>
@@ -4118,7 +4262,7 @@
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G43" s="28" t="s">
         <v>20</v>
@@ -4156,11 +4300,15 @@
       <c r="R43" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S43" s="35"/>
+      <c r="S43" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U43" s="35"/>
+      <c r="U43" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V43" s="35"/>
       <c r="W43" s="35"/>
       <c r="X43" s="35"/>
@@ -4188,7 +4336,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>20</v>
@@ -4226,11 +4374,15 @@
       <c r="R44" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S44" s="35"/>
+      <c r="S44" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U44" s="35"/>
+      <c r="U44" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V44" s="35"/>
       <c r="W44" s="35"/>
       <c r="X44" s="35"/>
@@ -4258,7 +4410,7 @@
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G45" s="28" t="s">
         <v>20</v>
@@ -4296,11 +4448,15 @@
       <c r="R45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S45" s="35"/>
+      <c r="S45" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U45" s="35"/>
+      <c r="U45" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V45" s="35"/>
       <c r="W45" s="35"/>
       <c r="X45" s="35"/>
@@ -4328,7 +4484,7 @@
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G46" s="28" t="s">
         <v>20</v>
@@ -4366,11 +4522,15 @@
       <c r="R46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S46" s="35"/>
+      <c r="S46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U46" s="35"/>
+      <c r="U46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V46" s="35"/>
       <c r="W46" s="35"/>
       <c r="X46" s="35"/>
@@ -4398,7 +4558,7 @@
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G47" s="28" t="s">
         <v>20</v>
@@ -4436,11 +4596,15 @@
       <c r="R47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S47" s="35"/>
+      <c r="S47" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U47" s="35"/>
+      <c r="U47" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V47" s="35"/>
       <c r="W47" s="35"/>
       <c r="X47" s="35"/>
@@ -4468,7 +4632,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G48" s="28" t="s">
         <v>20</v>
@@ -4506,11 +4670,15 @@
       <c r="R48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S48" s="35"/>
+      <c r="S48" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U48" s="35"/>
+      <c r="U48" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V48" s="35"/>
       <c r="W48" s="35"/>
       <c r="X48" s="35"/>
@@ -4534,11 +4702,11 @@
       </c>
       <c r="E49" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G49" s="28" t="s">
         <v>20</v>
@@ -4576,11 +4744,15 @@
       <c r="R49" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S49" s="35"/>
+      <c r="S49" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="T49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U49" s="35"/>
+      <c r="U49" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V49" s="35"/>
       <c r="W49" s="35"/>
       <c r="X49" s="35"/>
@@ -4608,7 +4780,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>20</v>
@@ -4646,11 +4818,15 @@
       <c r="R50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S50" s="35"/>
+      <c r="S50" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U50" s="35"/>
+      <c r="U50" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V50" s="35"/>
       <c r="W50" s="35"/>
       <c r="X50" s="35"/>
@@ -4678,7 +4854,7 @@
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>20</v>
@@ -4716,11 +4892,15 @@
       <c r="R51" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S51" s="35"/>
+      <c r="S51" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U51" s="35"/>
+      <c r="U51" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V51" s="35"/>
       <c r="W51" s="35"/>
       <c r="X51" s="35"/>
@@ -4748,7 +4928,7 @@
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G52" s="28" t="s">
         <v>20</v>
@@ -4786,11 +4966,15 @@
       <c r="R52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S52" s="35"/>
+      <c r="S52" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U52" s="35"/>
+      <c r="U52" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V52" s="35"/>
       <c r="W52" s="35"/>
       <c r="X52" s="35"/>
@@ -4818,7 +5002,7 @@
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G53" s="28" t="s">
         <v>20</v>
@@ -4856,11 +5040,15 @@
       <c r="R53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S53" s="35"/>
+      <c r="S53" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U53" s="35"/>
+      <c r="U53" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V53" s="35"/>
       <c r="W53" s="35"/>
       <c r="X53" s="35"/>
@@ -4888,7 +5076,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G54" s="28" t="s">
         <v>20</v>
@@ -4926,11 +5114,15 @@
       <c r="R54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S54" s="35"/>
+      <c r="S54" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U54" s="35"/>
+      <c r="U54" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V54" s="35"/>
       <c r="W54" s="35"/>
       <c r="X54" s="35"/>
@@ -4958,7 +5150,7 @@
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G55" s="28" t="s">
         <v>20</v>
@@ -4996,11 +5188,15 @@
       <c r="R55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S55" s="35"/>
+      <c r="S55" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U55" s="35"/>
+      <c r="U55" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V55" s="35"/>
       <c r="W55" s="35"/>
       <c r="X55" s="35"/>
@@ -5024,11 +5220,11 @@
       </c>
       <c r="E56" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G56" s="28" t="s">
         <v>20</v>
@@ -5066,11 +5262,15 @@
       <c r="R56" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S56" s="35"/>
+      <c r="S56" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U56" s="35"/>
+      <c r="U56" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="V56" s="35"/>
       <c r="W56" s="35"/>
       <c r="X56" s="35"/>
@@ -5098,7 +5298,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G57" s="28" t="s">
         <v>20</v>
@@ -5136,11 +5336,15 @@
       <c r="R57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S57" s="35"/>
+      <c r="S57" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U57" s="35"/>
+      <c r="U57" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V57" s="35"/>
       <c r="W57" s="35"/>
       <c r="X57" s="35"/>
@@ -5164,7 +5368,7 @@
       </c>
       <c r="E58" s="26">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
@@ -5206,11 +5410,15 @@
       <c r="R58" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S58" s="35"/>
+      <c r="S58" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="T58" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U58" s="35"/>
+      <c r="U58" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="V58" s="35"/>
       <c r="W58" s="35"/>
       <c r="X58" s="35"/>
@@ -5238,7 +5446,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G59" s="28" t="s">
         <v>20</v>
@@ -5276,11 +5484,15 @@
       <c r="R59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S59" s="35"/>
+      <c r="S59" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U59" s="35"/>
+      <c r="U59" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V59" s="35"/>
       <c r="W59" s="35"/>
       <c r="X59" s="35"/>
@@ -5308,7 +5520,7 @@
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G60" s="28" t="s">
         <v>20</v>
@@ -5346,11 +5558,15 @@
       <c r="R60" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S60" s="35"/>
+      <c r="S60" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T60" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U60" s="35"/>
+      <c r="U60" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V60" s="35"/>
       <c r="W60" s="35"/>
       <c r="X60" s="35"/>
@@ -5378,7 +5594,7 @@
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G61" s="28" t="s">
         <v>20</v>
@@ -5416,11 +5632,15 @@
       <c r="R61" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S61" s="35"/>
+      <c r="S61" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U61" s="35"/>
+      <c r="U61" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V61" s="35"/>
       <c r="W61" s="35"/>
       <c r="X61" s="35"/>
@@ -5448,7 +5668,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G62" s="28" t="s">
         <v>20</v>
@@ -5486,11 +5706,15 @@
       <c r="R62" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S62" s="35"/>
+      <c r="S62" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T62" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U62" s="35"/>
+      <c r="U62" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V62" s="35"/>
       <c r="W62" s="35"/>
       <c r="X62" s="35"/>
@@ -5518,7 +5742,7 @@
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G63" s="28" t="s">
         <v>20</v>
@@ -5556,11 +5780,15 @@
       <c r="R63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S63" s="35"/>
+      <c r="S63" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U63" s="35"/>
+      <c r="U63" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V63" s="35"/>
       <c r="W63" s="35"/>
       <c r="X63" s="35"/>
@@ -5588,7 +5816,7 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G64" s="28" t="s">
         <v>20</v>
@@ -5626,11 +5854,15 @@
       <c r="R64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S64" s="35"/>
+      <c r="S64" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U64" s="35"/>
+      <c r="U64" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V64" s="35"/>
       <c r="W64" s="35"/>
       <c r="X64" s="35"/>
@@ -5658,7 +5890,7 @@
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G65" s="28" t="s">
         <v>20</v>
@@ -5696,11 +5928,15 @@
       <c r="R65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S65" s="35"/>
+      <c r="S65" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T65" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U65" s="35"/>
+      <c r="U65" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V65" s="35"/>
       <c r="W65" s="35"/>
       <c r="X65" s="35"/>
@@ -5724,11 +5960,11 @@
       </c>
       <c r="E66" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G66" s="28" t="s">
         <v>20</v>
@@ -5766,11 +6002,15 @@
       <c r="R66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S66" s="35"/>
+      <c r="S66" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U66" s="35"/>
+      <c r="U66" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="V66" s="35"/>
       <c r="W66" s="35"/>
       <c r="X66" s="35"/>
@@ -5794,11 +6034,11 @@
       </c>
       <c r="E67" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G67" s="28" t="s">
         <v>20</v>
@@ -5836,11 +6076,15 @@
       <c r="R67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S67" s="35"/>
+      <c r="S67" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="T67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U67" s="35"/>
+      <c r="U67" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V67" s="35"/>
       <c r="W67" s="35"/>
       <c r="X67" s="35"/>
@@ -5864,11 +6108,11 @@
       </c>
       <c r="E68" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G68" s="28" t="s">
         <v>20</v>
@@ -5906,11 +6150,15 @@
       <c r="R68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S68" s="35"/>
+      <c r="S68" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="T68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U68" s="35"/>
+      <c r="U68" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V68" s="35"/>
       <c r="W68" s="35"/>
       <c r="X68" s="35"/>
@@ -5938,7 +6186,7 @@
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G69" s="28" t="s">
         <v>20</v>
@@ -5976,11 +6224,15 @@
       <c r="R69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S69" s="35"/>
+      <c r="S69" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T69" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U69" s="35"/>
+      <c r="U69" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V69" s="35"/>
       <c r="W69" s="35"/>
       <c r="X69" s="35"/>
@@ -6004,11 +6256,11 @@
       </c>
       <c r="E70" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G70" s="28" t="s">
         <v>20</v>
@@ -6046,11 +6298,15 @@
       <c r="R70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S70" s="35"/>
+      <c r="S70" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U70" s="35"/>
+      <c r="U70" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="V70" s="35"/>
       <c r="W70" s="35"/>
       <c r="X70" s="35"/>
@@ -6078,7 +6334,7 @@
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G71" s="28" t="s">
         <v>20</v>
@@ -6116,11 +6372,15 @@
       <c r="R71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S71" s="35"/>
+      <c r="S71" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U71" s="35"/>
+      <c r="U71" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V71" s="35"/>
       <c r="W71" s="35"/>
       <c r="X71" s="35"/>
@@ -6144,7 +6404,7 @@
       </c>
       <c r="E72" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
@@ -6186,11 +6446,15 @@
       <c r="R72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S72" s="35"/>
+      <c r="S72" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="T72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U72" s="35"/>
+      <c r="U72" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="V72" s="35"/>
       <c r="W72" s="35"/>
       <c r="X72" s="35"/>
@@ -6214,11 +6478,11 @@
       </c>
       <c r="E73" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G73" s="28" t="s">
         <v>20</v>
@@ -6256,11 +6520,15 @@
       <c r="R73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S73" s="35"/>
+      <c r="S73" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="T73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U73" s="35"/>
+      <c r="U73" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V73" s="35"/>
       <c r="W73" s="35"/>
       <c r="X73" s="35"/>
@@ -6288,7 +6556,7 @@
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G74" s="28" t="s">
         <v>21</v>
@@ -6326,11 +6594,15 @@
       <c r="R74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S74" s="35"/>
+      <c r="S74" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U74" s="35"/>
+      <c r="U74" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V74" s="35"/>
       <c r="W74" s="35"/>
       <c r="X74" s="35"/>
@@ -6354,11 +6626,11 @@
       </c>
       <c r="E75" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G75" s="28" t="s">
         <v>20</v>
@@ -6396,11 +6668,15 @@
       <c r="R75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S75" s="35"/>
+      <c r="S75" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="T75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U75" s="35"/>
+      <c r="U75" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V75" s="35"/>
       <c r="W75" s="35"/>
       <c r="X75" s="35"/>
@@ -6428,7 +6704,7 @@
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G76" s="28" t="s">
         <v>20</v>
@@ -6466,11 +6742,15 @@
       <c r="R76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S76" s="35"/>
+      <c r="S76" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U76" s="35"/>
+      <c r="U76" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V76" s="35"/>
       <c r="W76" s="35"/>
       <c r="X76" s="35"/>
@@ -6498,7 +6778,7 @@
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G77" s="28" t="s">
         <v>20</v>
@@ -6536,11 +6816,15 @@
       <c r="R77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S77" s="35"/>
+      <c r="S77" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U77" s="35"/>
+      <c r="U77" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V77" s="35"/>
       <c r="W77" s="35"/>
       <c r="X77" s="35"/>
@@ -6576,7 +6860,7 @@
       <c r="P78" s="35"/>
       <c r="Q78" s="35"/>
       <c r="R78" s="35"/>
-      <c r="S78" s="35"/>
+      <c r="S78" s="29"/>
       <c r="T78" s="35"/>
       <c r="U78" s="35"/>
       <c r="V78" s="35"/>

--- a/attendance-files/SCM/SCM-R (ABCD) Attendance.xlsx
+++ b/attendance-files/SCM/SCM-R (ABCD) Attendance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="162">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -511,7 +511,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd\,\ d\ mmmm\,\ yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -562,11 +562,6 @@
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -884,7 +879,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -965,9 +960,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1606,7 +1598,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1653,26 +1645,22 @@
       <c r="U7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W7" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="32">
+      <c r="A8" s="31">
         <f t="shared" ref="A8:A95" si="3">IF(B8&gt;0,A7+1,"")</f>
         <v>2</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="25" t="s">
@@ -1682,9 +1670,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F8" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+      <c r="F8" s="34">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>20</v>
@@ -1731,26 +1719,22 @@
       <c r="U8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V8" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W8" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="32">
+      <c r="A9" s="31">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="25" t="s">
@@ -1758,11 +1742,11 @@
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F9" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="F9" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>20</v>
@@ -1809,26 +1793,22 @@
       <c r="U9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W9" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="32">
+      <c r="A10" s="31">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -1838,9 +1818,9 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F10" s="35">
-        <f t="shared" si="2"/>
-        <v>12</v>
+      <c r="F10" s="34">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>21</v>
@@ -1887,26 +1867,22 @@
       <c r="U10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V10" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W10" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="32">
+      <c r="A11" s="31">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="33" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="25" t="s">
@@ -1914,11 +1890,11 @@
       </c>
       <c r="E11" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F11" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="F11" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>20</v>
@@ -1965,26 +1941,22 @@
       <c r="U11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="V11" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="W11" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="32">
+      <c r="A12" s="31">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="33" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -1992,11 +1964,11 @@
       </c>
       <c r="E12" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F12" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="F12" s="34">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>20</v>
@@ -2043,26 +2015,22 @@
       <c r="U12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V12" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="W12" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="32">
+      <c r="A13" s="31">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="33" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="25" t="s">
@@ -2070,9 +2038,9 @@
       </c>
       <c r="E13" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F13" s="35">
+        <v>0</v>
+      </c>
+      <c r="F13" s="34">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -2121,26 +2089,22 @@
       <c r="U13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V13" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="W13" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="36"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="32">
+      <c r="A14" s="31">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="25" t="s">
@@ -2148,11 +2112,11 @@
       </c>
       <c r="E14" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F14" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="F14" s="34">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>20</v>
@@ -2199,26 +2163,22 @@
       <c r="U14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V14" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W14" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="32">
+      <c r="A15" s="31">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="33" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="25" t="s">
@@ -2228,9 +2188,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F15" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+      <c r="F15" s="34">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>20</v>
@@ -2277,26 +2237,22 @@
       <c r="U15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V15" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W15" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="36"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="32">
+      <c r="A16" s="31">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="33" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -2304,9 +2260,9 @@
       </c>
       <c r="E16" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F16" s="35">
+        <v>1</v>
+      </c>
+      <c r="F16" s="34">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
@@ -2355,26 +2311,22 @@
       <c r="U16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V16" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="W16" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="36"/>
-      <c r="AA16" s="36"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="32">
+      <c r="A17" s="31">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="33" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="25" t="s">
@@ -2384,9 +2336,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F17" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="F17" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>20</v>
@@ -2433,26 +2385,22 @@
       <c r="U17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V17" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W17" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="36"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="32">
+      <c r="A18" s="31">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="33" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="25" t="s">
@@ -2462,9 +2410,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F18" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="F18" s="34">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>20</v>
@@ -2511,26 +2459,22 @@
       <c r="U18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V18" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W18" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="36"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="32">
+      <c r="A19" s="31">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="33" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="25" t="s">
@@ -2540,9 +2484,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F19" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="F19" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>20</v>
@@ -2589,26 +2533,22 @@
       <c r="U19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V19" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W19" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
-      <c r="AA19" s="36"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="32">
+      <c r="A20" s="31">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="33" t="s">
         <v>47</v>
       </c>
       <c r="D20" s="25" t="s">
@@ -2616,11 +2556,11 @@
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F20" s="35">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="F20" s="34">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>20</v>
@@ -2667,26 +2607,22 @@
       <c r="U20" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="V20" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="W20" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="36"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="32">
+      <c r="A21" s="31">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="33" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="25" t="s">
@@ -2696,9 +2632,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F21" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="F21" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>20</v>
@@ -2745,26 +2681,22 @@
       <c r="U21" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="V21" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W21" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="36"/>
-      <c r="AA21" s="36"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="32">
+      <c r="A22" s="31">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="33" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="25" t="s">
@@ -2774,75 +2706,71 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="35">
-        <f t="shared" si="2"/>
+      <c r="F22" s="34">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="31">
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="G22" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="N22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="O22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="P22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="R22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="S22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="T22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="U22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="V22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W22" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="36"/>
-      <c r="AA22" s="36"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="32">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="33" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="25" t="s">
@@ -2852,9 +2780,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F23" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+      <c r="F23" s="34">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>20</v>
@@ -2901,26 +2829,22 @@
       <c r="U23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V23" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W23" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
-      <c r="AA23" s="36"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="32">
+      <c r="A24" s="31">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="33" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -2930,9 +2854,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F24" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="F24" s="34">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>20</v>
@@ -2979,26 +2903,22 @@
       <c r="U24" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="V24" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W24" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="32">
+      <c r="A25" s="31">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="33" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="25" t="s">
@@ -3008,9 +2928,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F25" s="35">
-        <f t="shared" si="2"/>
-        <v>17</v>
+      <c r="F25" s="34">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>20</v>
@@ -3057,26 +2977,22 @@
       <c r="U25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V25" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W25" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="36"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="35"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="32">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="B26" s="33" t="s">
+      <c r="A26" s="31">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="33" t="s">
         <v>59</v>
       </c>
       <c r="D26" s="25" t="s">
@@ -3086,9 +3002,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F26" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+      <c r="F26" s="34">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>20</v>
@@ -3135,26 +3051,22 @@
       <c r="U26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V26" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W26" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="36"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="32">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="B27" s="33" t="s">
+      <c r="A27" s="31">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="B27" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="33" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="25" t="s">
@@ -3164,9 +3076,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F27" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="F27" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>20</v>
@@ -3213,26 +3125,22 @@
       <c r="U27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V27" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W27" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="36"/>
-      <c r="AA27" s="36"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="35"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="32">
+      <c r="A28" s="31">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="33" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="25" t="s">
@@ -3240,9 +3148,9 @@
       </c>
       <c r="E28" s="26">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="F28" s="35">
+        <v>5</v>
+      </c>
+      <c r="F28" s="34">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -3291,26 +3199,22 @@
       <c r="U28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V28" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="W28" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="36"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="32">
+      <c r="A29" s="31">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="33" t="s">
         <v>65</v>
       </c>
       <c r="D29" s="25" t="s">
@@ -3320,9 +3224,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F29" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+      <c r="F29" s="34">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>20</v>
@@ -3369,26 +3273,22 @@
       <c r="U29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V29" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W29" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="36"/>
-      <c r="AA29" s="36"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="35"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="32">
+      <c r="A30" s="31">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="33" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="25" t="s">
@@ -3396,11 +3296,11 @@
       </c>
       <c r="E30" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F30" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="F30" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>20</v>
@@ -3447,26 +3347,22 @@
       <c r="U30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V30" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="W30" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="36"/>
-      <c r="AA30" s="36"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="35"/>
+      <c r="AA30" s="35"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="32">
+      <c r="A31" s="31">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="33" t="s">
         <v>69</v>
       </c>
       <c r="D31" s="25" t="s">
@@ -3474,11 +3370,11 @@
       </c>
       <c r="E31" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F31" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="F31" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>20</v>
@@ -3525,26 +3421,22 @@
       <c r="U31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V31" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W31" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="36"/>
-      <c r="AA31" s="36"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="32">
+      <c r="A32" s="31">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="33" t="s">
         <v>71</v>
       </c>
       <c r="D32" s="25" t="s">
@@ -3552,11 +3444,11 @@
       </c>
       <c r="E32" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F32" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="F32" s="34">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>20</v>
@@ -3603,26 +3495,22 @@
       <c r="U32" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="V32" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W32" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="36"/>
-      <c r="AA32" s="36"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="32">
+      <c r="A33" s="31">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="33" t="s">
         <v>73</v>
       </c>
       <c r="D33" s="25" t="s">
@@ -3632,9 +3520,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F33" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="F33" s="34">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G33" s="28" t="s">
         <v>21</v>
@@ -3681,26 +3569,22 @@
       <c r="U33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V33" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W33" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X33" s="36"/>
-      <c r="Y33" s="36"/>
-      <c r="Z33" s="36"/>
-      <c r="AA33" s="36"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="32">
+      <c r="A34" s="31">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="33" t="s">
         <v>75</v>
       </c>
       <c r="D34" s="25" t="s">
@@ -3708,11 +3592,11 @@
       </c>
       <c r="E34" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F34" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="F34" s="34">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>20</v>
@@ -3759,26 +3643,22 @@
       <c r="U34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V34" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="W34" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="36"/>
-      <c r="AA34" s="36"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="35"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="32">
+      <c r="A35" s="31">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="33" t="s">
         <v>77</v>
       </c>
       <c r="D35" s="25" t="s">
@@ -3788,9 +3668,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F35" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+      <c r="F35" s="34">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>20</v>
@@ -3837,26 +3717,22 @@
       <c r="U35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V35" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W35" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="36"/>
-      <c r="Z35" s="36"/>
-      <c r="AA35" s="36"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="35"/>
+      <c r="AA35" s="35"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="32">
+      <c r="A36" s="31">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="33" t="s">
         <v>79</v>
       </c>
       <c r="D36" s="25" t="s">
@@ -3866,9 +3742,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F36" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+      <c r="F36" s="34">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>20</v>
@@ -3915,26 +3791,22 @@
       <c r="U36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V36" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W36" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X36" s="36"/>
-      <c r="Y36" s="36"/>
-      <c r="Z36" s="36"/>
-      <c r="AA36" s="36"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="32">
+      <c r="A37" s="31">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="33" t="s">
         <v>81</v>
       </c>
       <c r="D37" s="25" t="s">
@@ -3944,9 +3816,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F37" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+      <c r="F37" s="34">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="G37" s="28" t="s">
         <v>20</v>
@@ -3993,26 +3865,22 @@
       <c r="U37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V37" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W37" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X37" s="36"/>
-      <c r="Y37" s="36"/>
-      <c r="Z37" s="36"/>
-      <c r="AA37" s="36"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="35"/>
+      <c r="AA37" s="35"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="32">
+      <c r="A38" s="31">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="33" t="s">
         <v>83</v>
       </c>
       <c r="D38" s="25" t="s">
@@ -4020,11 +3888,11 @@
       </c>
       <c r="E38" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F38" s="35">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="F38" s="34">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>20</v>
@@ -4071,26 +3939,22 @@
       <c r="U38" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="V38" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="W38" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X38" s="36"/>
-      <c r="Y38" s="36"/>
-      <c r="Z38" s="36"/>
-      <c r="AA38" s="36"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="35"/>
+      <c r="AA38" s="35"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="32">
+      <c r="A39" s="31">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="33" t="s">
         <v>85</v>
       </c>
       <c r="D39" s="25" t="s">
@@ -4100,9 +3964,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F39" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+      <c r="F39" s="34">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="G39" s="28" t="s">
         <v>20</v>
@@ -4149,26 +4013,22 @@
       <c r="U39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V39" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W39" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X39" s="36"/>
-      <c r="Y39" s="36"/>
-      <c r="Z39" s="36"/>
-      <c r="AA39" s="36"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
+      <c r="AA39" s="35"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="32">
+      <c r="A40" s="31">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="33" t="s">
         <v>87</v>
       </c>
       <c r="D40" s="25" t="s">
@@ -4178,9 +4038,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F40" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="F40" s="34">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G40" s="28" t="s">
         <v>21</v>
@@ -4227,26 +4087,22 @@
       <c r="U40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V40" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W40" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X40" s="36"/>
-      <c r="Y40" s="36"/>
-      <c r="Z40" s="36"/>
-      <c r="AA40" s="36"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="35"/>
+      <c r="AA40" s="35"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="32">
+      <c r="A41" s="31">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="33" t="s">
         <v>89</v>
       </c>
       <c r="D41" s="25" t="s">
@@ -4256,9 +4112,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="35">
-        <f t="shared" si="2"/>
-        <v>17</v>
+      <c r="F41" s="34">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>20</v>
@@ -4305,26 +4161,22 @@
       <c r="U41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V41" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W41" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X41" s="36"/>
-      <c r="Y41" s="36"/>
-      <c r="Z41" s="36"/>
-      <c r="AA41" s="36"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="35"/>
+      <c r="X41" s="35"/>
+      <c r="Y41" s="35"/>
+      <c r="Z41" s="35"/>
+      <c r="AA41" s="35"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="32">
+      <c r="A42" s="31">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="33" t="s">
         <v>91</v>
       </c>
       <c r="D42" s="25" t="s">
@@ -4334,9 +4186,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F42" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="F42" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>20</v>
@@ -4383,26 +4235,22 @@
       <c r="U42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V42" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W42" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X42" s="36"/>
-      <c r="Y42" s="36"/>
-      <c r="Z42" s="36"/>
-      <c r="AA42" s="36"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="35"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="32">
+      <c r="A43" s="31">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="33" t="s">
         <v>93</v>
       </c>
       <c r="D43" s="25" t="s">
@@ -4412,9 +4260,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F43" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="F43" s="34">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G43" s="28" t="s">
         <v>20</v>
@@ -4461,26 +4309,22 @@
       <c r="U43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V43" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W43" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X43" s="36"/>
-      <c r="Y43" s="36"/>
-      <c r="Z43" s="36"/>
-      <c r="AA43" s="36"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="35"/>
+      <c r="X43" s="35"/>
+      <c r="Y43" s="35"/>
+      <c r="Z43" s="35"/>
+      <c r="AA43" s="35"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="32">
+      <c r="A44" s="31">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="33" t="s">
         <v>95</v>
       </c>
       <c r="D44" s="25" t="s">
@@ -4490,9 +4334,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F44" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="F44" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>20</v>
@@ -4539,26 +4383,22 @@
       <c r="U44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V44" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W44" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X44" s="36"/>
-      <c r="Y44" s="36"/>
-      <c r="Z44" s="36"/>
-      <c r="AA44" s="36"/>
+      <c r="V44" s="35"/>
+      <c r="W44" s="35"/>
+      <c r="X44" s="35"/>
+      <c r="Y44" s="35"/>
+      <c r="Z44" s="35"/>
+      <c r="AA44" s="35"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="32">
+      <c r="A45" s="31">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="33" t="s">
         <v>97</v>
       </c>
       <c r="D45" s="25" t="s">
@@ -4568,9 +4408,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F45" s="35">
-        <f t="shared" si="2"/>
-        <v>17</v>
+      <c r="F45" s="34">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="G45" s="28" t="s">
         <v>20</v>
@@ -4617,26 +4457,22 @@
       <c r="U45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V45" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W45" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X45" s="36"/>
-      <c r="Y45" s="36"/>
-      <c r="Z45" s="36"/>
-      <c r="AA45" s="36"/>
+      <c r="V45" s="35"/>
+      <c r="W45" s="35"/>
+      <c r="X45" s="35"/>
+      <c r="Y45" s="35"/>
+      <c r="Z45" s="35"/>
+      <c r="AA45" s="35"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="32">
+      <c r="A46" s="31">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="33" t="s">
         <v>99</v>
       </c>
       <c r="D46" s="25" t="s">
@@ -4646,9 +4482,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F46" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="F46" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G46" s="28" t="s">
         <v>20</v>
@@ -4695,26 +4531,22 @@
       <c r="U46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V46" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W46" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X46" s="36"/>
-      <c r="Y46" s="36"/>
-      <c r="Z46" s="36"/>
-      <c r="AA46" s="36"/>
+      <c r="V46" s="35"/>
+      <c r="W46" s="35"/>
+      <c r="X46" s="35"/>
+      <c r="Y46" s="35"/>
+      <c r="Z46" s="35"/>
+      <c r="AA46" s="35"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="32">
+      <c r="A47" s="31">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="33" t="s">
         <v>101</v>
       </c>
       <c r="D47" s="25" t="s">
@@ -4724,9 +4556,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F47" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="F47" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G47" s="28" t="s">
         <v>20</v>
@@ -4773,26 +4605,22 @@
       <c r="U47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V47" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W47" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X47" s="36"/>
-      <c r="Y47" s="36"/>
-      <c r="Z47" s="36"/>
-      <c r="AA47" s="36"/>
+      <c r="V47" s="35"/>
+      <c r="W47" s="35"/>
+      <c r="X47" s="35"/>
+      <c r="Y47" s="35"/>
+      <c r="Z47" s="35"/>
+      <c r="AA47" s="35"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="32">
+      <c r="A48" s="31">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="33" t="s">
         <v>103</v>
       </c>
       <c r="D48" s="25" t="s">
@@ -4802,9 +4630,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F48" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+      <c r="F48" s="34">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="G48" s="28" t="s">
         <v>20</v>
@@ -4851,26 +4679,22 @@
       <c r="U48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V48" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W48" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X48" s="36"/>
-      <c r="Y48" s="36"/>
-      <c r="Z48" s="36"/>
-      <c r="AA48" s="36"/>
+      <c r="V48" s="35"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="35"/>
+      <c r="Y48" s="35"/>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="35"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="32">
+      <c r="A49" s="31">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="33" t="s">
         <v>105</v>
       </c>
       <c r="D49" s="25" t="s">
@@ -4880,9 +4704,9 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F49" s="35">
-        <f t="shared" si="2"/>
-        <v>12</v>
+      <c r="F49" s="34">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G49" s="28" t="s">
         <v>20</v>
@@ -4929,26 +4753,22 @@
       <c r="U49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V49" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W49" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X49" s="36"/>
-      <c r="Y49" s="36"/>
-      <c r="Z49" s="36"/>
-      <c r="AA49" s="36"/>
+      <c r="V49" s="35"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="35"/>
+      <c r="Y49" s="35"/>
+      <c r="Z49" s="35"/>
+      <c r="AA49" s="35"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="32">
+      <c r="A50" s="31">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="33" t="s">
         <v>107</v>
       </c>
       <c r="D50" s="25" t="s">
@@ -4958,9 +4778,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F50" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+      <c r="F50" s="34">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>20</v>
@@ -5007,26 +4827,22 @@
       <c r="U50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V50" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W50" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X50" s="36"/>
-      <c r="Y50" s="36"/>
-      <c r="Z50" s="36"/>
-      <c r="AA50" s="36"/>
+      <c r="V50" s="35"/>
+      <c r="W50" s="35"/>
+      <c r="X50" s="35"/>
+      <c r="Y50" s="35"/>
+      <c r="Z50" s="35"/>
+      <c r="AA50" s="35"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="32">
+      <c r="A51" s="31">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="33" t="s">
         <v>109</v>
       </c>
       <c r="D51" s="25" t="s">
@@ -5036,9 +4852,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F51" s="35">
-        <f t="shared" si="2"/>
-        <v>13</v>
+      <c r="F51" s="34">
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>20</v>
@@ -5085,26 +4901,22 @@
       <c r="U51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V51" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W51" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X51" s="36"/>
-      <c r="Y51" s="36"/>
-      <c r="Z51" s="36"/>
-      <c r="AA51" s="36"/>
+      <c r="V51" s="35"/>
+      <c r="W51" s="35"/>
+      <c r="X51" s="35"/>
+      <c r="Y51" s="35"/>
+      <c r="Z51" s="35"/>
+      <c r="AA51" s="35"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="32">
+      <c r="A52" s="31">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="B52" s="33" t="s">
+      <c r="B52" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="33" t="s">
         <v>111</v>
       </c>
       <c r="D52" s="25" t="s">
@@ -5114,9 +4926,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F52" s="35">
-        <f t="shared" si="2"/>
-        <v>17</v>
+      <c r="F52" s="34">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="G52" s="28" t="s">
         <v>20</v>
@@ -5163,26 +4975,22 @@
       <c r="U52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V52" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W52" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X52" s="36"/>
-      <c r="Y52" s="36"/>
-      <c r="Z52" s="36"/>
-      <c r="AA52" s="36"/>
+      <c r="V52" s="35"/>
+      <c r="W52" s="35"/>
+      <c r="X52" s="35"/>
+      <c r="Y52" s="35"/>
+      <c r="Z52" s="35"/>
+      <c r="AA52" s="35"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="32">
+      <c r="A53" s="31">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="33" t="s">
         <v>113</v>
       </c>
       <c r="D53" s="25" t="s">
@@ -5190,11 +4998,11 @@
       </c>
       <c r="E53" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F53" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="F53" s="34">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="G53" s="28" t="s">
         <v>20</v>
@@ -5241,26 +5049,22 @@
       <c r="U53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V53" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="W53" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X53" s="36"/>
-      <c r="Y53" s="36"/>
-      <c r="Z53" s="36"/>
-      <c r="AA53" s="36"/>
+      <c r="V53" s="35"/>
+      <c r="W53" s="35"/>
+      <c r="X53" s="35"/>
+      <c r="Y53" s="35"/>
+      <c r="Z53" s="35"/>
+      <c r="AA53" s="35"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="32">
+      <c r="A54" s="31">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="33" t="s">
         <v>115</v>
       </c>
       <c r="D54" s="25" t="s">
@@ -5270,9 +5074,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F54" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="F54" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G54" s="28" t="s">
         <v>20</v>
@@ -5319,26 +5123,22 @@
       <c r="U54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V54" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W54" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X54" s="36"/>
-      <c r="Y54" s="36"/>
-      <c r="Z54" s="36"/>
-      <c r="AA54" s="36"/>
+      <c r="V54" s="35"/>
+      <c r="W54" s="35"/>
+      <c r="X54" s="35"/>
+      <c r="Y54" s="35"/>
+      <c r="Z54" s="35"/>
+      <c r="AA54" s="35"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="32">
+      <c r="A55" s="31">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="33" t="s">
         <v>117</v>
       </c>
       <c r="D55" s="25" t="s">
@@ -5348,9 +5148,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F55" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+      <c r="F55" s="34">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="G55" s="28" t="s">
         <v>20</v>
@@ -5397,26 +5197,22 @@
       <c r="U55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V55" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W55" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X55" s="36"/>
-      <c r="Y55" s="36"/>
-      <c r="Z55" s="36"/>
-      <c r="AA55" s="36"/>
+      <c r="V55" s="35"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="35"/>
+      <c r="Y55" s="35"/>
+      <c r="Z55" s="35"/>
+      <c r="AA55" s="35"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="32">
+      <c r="A56" s="31">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="34" t="s">
+      <c r="C56" s="33" t="s">
         <v>119</v>
       </c>
       <c r="D56" s="25" t="s">
@@ -5426,9 +5222,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F56" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="F56" s="34">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G56" s="28" t="s">
         <v>20</v>
@@ -5475,26 +5271,22 @@
       <c r="U56" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="V56" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W56" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X56" s="36"/>
-      <c r="Y56" s="36"/>
-      <c r="Z56" s="36"/>
-      <c r="AA56" s="36"/>
+      <c r="V56" s="35"/>
+      <c r="W56" s="35"/>
+      <c r="X56" s="35"/>
+      <c r="Y56" s="35"/>
+      <c r="Z56" s="35"/>
+      <c r="AA56" s="35"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="32">
+      <c r="A57" s="31">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="33" t="s">
         <v>121</v>
       </c>
       <c r="D57" s="25" t="s">
@@ -5504,9 +5296,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F57" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+      <c r="F57" s="34">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="G57" s="28" t="s">
         <v>20</v>
@@ -5553,26 +5345,22 @@
       <c r="U57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V57" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W57" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X57" s="36"/>
-      <c r="Y57" s="36"/>
-      <c r="Z57" s="36"/>
-      <c r="AA57" s="36"/>
+      <c r="V57" s="35"/>
+      <c r="W57" s="35"/>
+      <c r="X57" s="35"/>
+      <c r="Y57" s="35"/>
+      <c r="Z57" s="35"/>
+      <c r="AA57" s="35"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="32">
+      <c r="A58" s="31">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="33" t="s">
         <v>123</v>
       </c>
       <c r="D58" s="25" t="s">
@@ -5580,9 +5368,9 @@
       </c>
       <c r="E58" s="26">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="F58" s="35">
+        <v>15</v>
+      </c>
+      <c r="F58" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5631,26 +5419,22 @@
       <c r="U58" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="V58" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="W58" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="X58" s="36"/>
-      <c r="Y58" s="36"/>
-      <c r="Z58" s="36"/>
-      <c r="AA58" s="36"/>
+      <c r="V58" s="35"/>
+      <c r="W58" s="35"/>
+      <c r="X58" s="35"/>
+      <c r="Y58" s="35"/>
+      <c r="Z58" s="35"/>
+      <c r="AA58" s="35"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="32">
+      <c r="A59" s="31">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="33" t="s">
         <v>125</v>
       </c>
       <c r="D59" s="25" t="s">
@@ -5660,9 +5444,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F59" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="F59" s="34">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G59" s="28" t="s">
         <v>20</v>
@@ -5709,26 +5493,22 @@
       <c r="U59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V59" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W59" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X59" s="36"/>
-      <c r="Y59" s="36"/>
-      <c r="Z59" s="36"/>
-      <c r="AA59" s="36"/>
+      <c r="V59" s="35"/>
+      <c r="W59" s="35"/>
+      <c r="X59" s="35"/>
+      <c r="Y59" s="35"/>
+      <c r="Z59" s="35"/>
+      <c r="AA59" s="35"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="32">
+      <c r="A60" s="31">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="33" t="s">
         <v>127</v>
       </c>
       <c r="D60" s="25" t="s">
@@ -5738,9 +5518,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F60" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="F60" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G60" s="28" t="s">
         <v>20</v>
@@ -5787,26 +5567,22 @@
       <c r="U60" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V60" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W60" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X60" s="36"/>
-      <c r="Y60" s="36"/>
-      <c r="Z60" s="36"/>
-      <c r="AA60" s="36"/>
+      <c r="V60" s="35"/>
+      <c r="W60" s="35"/>
+      <c r="X60" s="35"/>
+      <c r="Y60" s="35"/>
+      <c r="Z60" s="35"/>
+      <c r="AA60" s="35"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="32">
+      <c r="A61" s="31">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C61" s="33" t="s">
         <v>129</v>
       </c>
       <c r="D61" s="25" t="s">
@@ -5816,9 +5592,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F61" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="F61" s="34">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G61" s="28" t="s">
         <v>20</v>
@@ -5865,26 +5641,22 @@
       <c r="U61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V61" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W61" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X61" s="36"/>
-      <c r="Y61" s="36"/>
-      <c r="Z61" s="36"/>
-      <c r="AA61" s="36"/>
+      <c r="V61" s="35"/>
+      <c r="W61" s="35"/>
+      <c r="X61" s="35"/>
+      <c r="Y61" s="35"/>
+      <c r="Z61" s="35"/>
+      <c r="AA61" s="35"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="32">
+      <c r="A62" s="31">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="33" t="s">
         <v>131</v>
       </c>
       <c r="D62" s="25" t="s">
@@ -5894,9 +5666,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F62" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="F62" s="34">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G62" s="28" t="s">
         <v>20</v>
@@ -5943,26 +5715,22 @@
       <c r="U62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V62" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W62" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X62" s="36"/>
-      <c r="Y62" s="36"/>
-      <c r="Z62" s="36"/>
-      <c r="AA62" s="36"/>
+      <c r="V62" s="35"/>
+      <c r="W62" s="35"/>
+      <c r="X62" s="35"/>
+      <c r="Y62" s="35"/>
+      <c r="Z62" s="35"/>
+      <c r="AA62" s="35"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="32">
+      <c r="A63" s="31">
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="B63" s="33" t="s">
+      <c r="B63" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="33" t="s">
         <v>133</v>
       </c>
       <c r="D63" s="25" t="s">
@@ -5970,11 +5738,11 @@
       </c>
       <c r="E63" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F63" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="F63" s="34">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="G63" s="28" t="s">
         <v>20</v>
@@ -6021,26 +5789,22 @@
       <c r="U63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V63" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="W63" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X63" s="36"/>
-      <c r="Y63" s="36"/>
-      <c r="Z63" s="36"/>
-      <c r="AA63" s="36"/>
+      <c r="V63" s="35"/>
+      <c r="W63" s="35"/>
+      <c r="X63" s="35"/>
+      <c r="Y63" s="35"/>
+      <c r="Z63" s="35"/>
+      <c r="AA63" s="35"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="32">
+      <c r="A64" s="31">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="B64" s="33" t="s">
+      <c r="B64" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="33" t="s">
         <v>135</v>
       </c>
       <c r="D64" s="25" t="s">
@@ -6050,9 +5814,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F64" s="35">
-        <f t="shared" si="2"/>
-        <v>17</v>
+      <c r="F64" s="34">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="G64" s="28" t="s">
         <v>20</v>
@@ -6099,26 +5863,22 @@
       <c r="U64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V64" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W64" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X64" s="36"/>
-      <c r="Y64" s="36"/>
-      <c r="Z64" s="36"/>
-      <c r="AA64" s="36"/>
+      <c r="V64" s="35"/>
+      <c r="W64" s="35"/>
+      <c r="X64" s="35"/>
+      <c r="Y64" s="35"/>
+      <c r="Z64" s="35"/>
+      <c r="AA64" s="35"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="32">
+      <c r="A65" s="31">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="B65" s="33" t="s">
+      <c r="B65" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="C65" s="33" t="s">
         <v>137</v>
       </c>
       <c r="D65" s="25" t="s">
@@ -6128,9 +5888,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F65" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="F65" s="34">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G65" s="28" t="s">
         <v>20</v>
@@ -6177,26 +5937,22 @@
       <c r="U65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V65" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W65" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X65" s="36"/>
-      <c r="Y65" s="36"/>
-      <c r="Z65" s="36"/>
-      <c r="AA65" s="36"/>
+      <c r="V65" s="35"/>
+      <c r="W65" s="35"/>
+      <c r="X65" s="35"/>
+      <c r="Y65" s="35"/>
+      <c r="Z65" s="35"/>
+      <c r="AA65" s="35"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="32">
+      <c r="A66" s="31">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="33" t="s">
         <v>139</v>
       </c>
       <c r="D66" s="25" t="s">
@@ -6206,9 +5962,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F66" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="F66" s="34">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G66" s="28" t="s">
         <v>20</v>
@@ -6255,26 +6011,22 @@
       <c r="U66" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="V66" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W66" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X66" s="36"/>
-      <c r="Y66" s="36"/>
-      <c r="Z66" s="36"/>
-      <c r="AA66" s="36"/>
+      <c r="V66" s="35"/>
+      <c r="W66" s="35"/>
+      <c r="X66" s="35"/>
+      <c r="Y66" s="35"/>
+      <c r="Z66" s="35"/>
+      <c r="AA66" s="35"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="32">
+      <c r="A67" s="31">
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="B67" s="33" t="s">
+      <c r="B67" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="C67" s="33" t="s">
         <v>141</v>
       </c>
       <c r="D67" s="25" t="s">
@@ -6284,9 +6036,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F67" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="F67" s="34">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G67" s="28" t="s">
         <v>20</v>
@@ -6333,26 +6085,22 @@
       <c r="U67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V67" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W67" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X67" s="36"/>
-      <c r="Y67" s="36"/>
-      <c r="Z67" s="36"/>
-      <c r="AA67" s="36"/>
+      <c r="V67" s="35"/>
+      <c r="W67" s="35"/>
+      <c r="X67" s="35"/>
+      <c r="Y67" s="35"/>
+      <c r="Z67" s="35"/>
+      <c r="AA67" s="35"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="32">
+      <c r="A68" s="31">
         <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="B68" s="33" t="s">
+      <c r="B68" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="33" t="s">
         <v>143</v>
       </c>
       <c r="D68" s="25" t="s">
@@ -6360,11 +6108,11 @@
       </c>
       <c r="E68" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F68" s="35">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="F68" s="34">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G68" s="28" t="s">
         <v>20</v>
@@ -6411,26 +6159,22 @@
       <c r="U68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V68" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="W68" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X68" s="36"/>
-      <c r="Y68" s="36"/>
-      <c r="Z68" s="36"/>
-      <c r="AA68" s="36"/>
+      <c r="V68" s="35"/>
+      <c r="W68" s="35"/>
+      <c r="X68" s="35"/>
+      <c r="Y68" s="35"/>
+      <c r="Z68" s="35"/>
+      <c r="AA68" s="35"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="32">
+      <c r="A69" s="31">
         <f t="shared" si="3"/>
         <v>63</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="34" t="s">
+      <c r="C69" s="33" t="s">
         <v>145</v>
       </c>
       <c r="D69" s="25" t="s">
@@ -6440,9 +6184,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F69" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="F69" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G69" s="28" t="s">
         <v>20</v>
@@ -6489,26 +6233,22 @@
       <c r="U69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V69" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W69" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X69" s="36"/>
-      <c r="Y69" s="36"/>
-      <c r="Z69" s="36"/>
-      <c r="AA69" s="36"/>
+      <c r="V69" s="35"/>
+      <c r="W69" s="35"/>
+      <c r="X69" s="35"/>
+      <c r="Y69" s="35"/>
+      <c r="Z69" s="35"/>
+      <c r="AA69" s="35"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="32">
+      <c r="A70" s="31">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="C70" s="34" t="s">
+      <c r="C70" s="33" t="s">
         <v>147</v>
       </c>
       <c r="D70" s="25" t="s">
@@ -6518,9 +6258,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F70" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+      <c r="F70" s="34">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="G70" s="28" t="s">
         <v>20</v>
@@ -6567,26 +6307,22 @@
       <c r="U70" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="V70" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W70" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X70" s="36"/>
-      <c r="Y70" s="36"/>
-      <c r="Z70" s="36"/>
-      <c r="AA70" s="36"/>
+      <c r="V70" s="35"/>
+      <c r="W70" s="35"/>
+      <c r="X70" s="35"/>
+      <c r="Y70" s="35"/>
+      <c r="Z70" s="35"/>
+      <c r="AA70" s="35"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="32">
+      <c r="A71" s="31">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="B71" s="33" t="s">
+      <c r="B71" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="C71" s="34" t="s">
+      <c r="C71" s="33" t="s">
         <v>149</v>
       </c>
       <c r="D71" s="25" t="s">
@@ -6596,9 +6332,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F71" s="35">
-        <f t="shared" si="2"/>
-        <v>17</v>
+      <c r="F71" s="34">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="G71" s="28" t="s">
         <v>20</v>
@@ -6645,26 +6381,22 @@
       <c r="U71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V71" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W71" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X71" s="36"/>
-      <c r="Y71" s="36"/>
-      <c r="Z71" s="36"/>
-      <c r="AA71" s="36"/>
+      <c r="V71" s="35"/>
+      <c r="W71" s="35"/>
+      <c r="X71" s="35"/>
+      <c r="Y71" s="35"/>
+      <c r="Z71" s="35"/>
+      <c r="AA71" s="35"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="32">
+      <c r="A72" s="31">
         <f t="shared" si="3"/>
         <v>66</v>
       </c>
-      <c r="B72" s="33" t="s">
+      <c r="B72" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="C72" s="34" t="s">
+      <c r="C72" s="33" t="s">
         <v>151</v>
       </c>
       <c r="D72" s="25" t="s">
@@ -6674,9 +6406,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F72" s="35">
-        <f t="shared" si="2"/>
-        <v>13</v>
+      <c r="F72" s="34">
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="G72" s="28" t="s">
         <v>20</v>
@@ -6723,26 +6455,22 @@
       <c r="U72" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="V72" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W72" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X72" s="36"/>
-      <c r="Y72" s="36"/>
-      <c r="Z72" s="36"/>
-      <c r="AA72" s="36"/>
+      <c r="V72" s="35"/>
+      <c r="W72" s="35"/>
+      <c r="X72" s="35"/>
+      <c r="Y72" s="35"/>
+      <c r="Z72" s="35"/>
+      <c r="AA72" s="35"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="32">
+      <c r="A73" s="31">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="B73" s="33" t="s">
+      <c r="B73" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="C73" s="34" t="s">
+      <c r="C73" s="33" t="s">
         <v>153</v>
       </c>
       <c r="D73" s="25" t="s">
@@ -6752,9 +6480,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F73" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="F73" s="34">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G73" s="28" t="s">
         <v>20</v>
@@ -6801,26 +6529,22 @@
       <c r="U73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V73" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W73" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X73" s="36"/>
-      <c r="Y73" s="36"/>
-      <c r="Z73" s="36"/>
-      <c r="AA73" s="36"/>
+      <c r="V73" s="35"/>
+      <c r="W73" s="35"/>
+      <c r="X73" s="35"/>
+      <c r="Y73" s="35"/>
+      <c r="Z73" s="35"/>
+      <c r="AA73" s="35"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="32">
+      <c r="A74" s="31">
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="33" t="s">
         <v>155</v>
       </c>
       <c r="D74" s="25" t="s">
@@ -6830,9 +6554,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F74" s="35">
-        <f t="shared" si="2"/>
-        <v>13</v>
+      <c r="F74" s="34">
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="G74" s="28" t="s">
         <v>21</v>
@@ -6879,26 +6603,22 @@
       <c r="U74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V74" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W74" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X74" s="36"/>
-      <c r="Y74" s="36"/>
-      <c r="Z74" s="36"/>
-      <c r="AA74" s="36"/>
+      <c r="V74" s="35"/>
+      <c r="W74" s="35"/>
+      <c r="X74" s="35"/>
+      <c r="Y74" s="35"/>
+      <c r="Z74" s="35"/>
+      <c r="AA74" s="35"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="32">
+      <c r="A75" s="31">
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="B75" s="33" t="s">
+      <c r="B75" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="C75" s="34" t="s">
+      <c r="C75" s="33" t="s">
         <v>157</v>
       </c>
       <c r="D75" s="25" t="s">
@@ -6908,9 +6628,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F75" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="F75" s="34">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G75" s="28" t="s">
         <v>20</v>
@@ -6957,26 +6677,22 @@
       <c r="U75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V75" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W75" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X75" s="36"/>
-      <c r="Y75" s="36"/>
-      <c r="Z75" s="36"/>
-      <c r="AA75" s="36"/>
+      <c r="V75" s="35"/>
+      <c r="W75" s="35"/>
+      <c r="X75" s="35"/>
+      <c r="Y75" s="35"/>
+      <c r="Z75" s="35"/>
+      <c r="AA75" s="35"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="32">
+      <c r="A76" s="31">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="B76" s="33" t="s">
+      <c r="B76" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="C76" s="34" t="s">
+      <c r="C76" s="33" t="s">
         <v>159</v>
       </c>
       <c r="D76" s="25" t="s">
@@ -6986,9 +6702,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F76" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="F76" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G76" s="28" t="s">
         <v>20</v>
@@ -7035,26 +6751,22 @@
       <c r="U76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V76" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W76" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X76" s="36"/>
-      <c r="Y76" s="36"/>
-      <c r="Z76" s="36"/>
-      <c r="AA76" s="36"/>
+      <c r="V76" s="35"/>
+      <c r="W76" s="35"/>
+      <c r="X76" s="35"/>
+      <c r="Y76" s="35"/>
+      <c r="Z76" s="35"/>
+      <c r="AA76" s="35"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="32">
+      <c r="A77" s="31">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
-      <c r="B77" s="33" t="s">
+      <c r="B77" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="C77" s="34" t="s">
+      <c r="C77" s="33" t="s">
         <v>161</v>
       </c>
       <c r="D77" s="25" t="s">
@@ -7064,9 +6776,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F77" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="F77" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G77" s="28" t="s">
         <v>20</v>
@@ -7113,700 +6825,696 @@
       <c r="U77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V77" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W77" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X77" s="36"/>
-      <c r="Y77" s="36"/>
-      <c r="Z77" s="36"/>
-      <c r="AA77" s="36"/>
+      <c r="V77" s="35"/>
+      <c r="W77" s="35"/>
+      <c r="X77" s="35"/>
+      <c r="Y77" s="35"/>
+      <c r="Z77" s="35"/>
+      <c r="AA77" s="35"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B78" s="33"/>
-      <c r="C78" s="34"/>
+      <c r="A78" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B78" s="32"/>
+      <c r="C78" s="33"/>
       <c r="D78" s="25"/>
       <c r="E78" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F78" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G78" s="37"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="36"/>
-      <c r="L78" s="36"/>
-      <c r="M78" s="36"/>
-      <c r="N78" s="36"/>
-      <c r="O78" s="36"/>
-      <c r="P78" s="36"/>
-      <c r="Q78" s="36"/>
-      <c r="R78" s="36"/>
+      <c r="F78" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G78" s="36"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="35"/>
+      <c r="K78" s="35"/>
+      <c r="L78" s="35"/>
+      <c r="M78" s="35"/>
+      <c r="N78" s="35"/>
+      <c r="O78" s="35"/>
+      <c r="P78" s="35"/>
+      <c r="Q78" s="35"/>
+      <c r="R78" s="35"/>
       <c r="S78" s="29"/>
-      <c r="T78" s="36"/>
-      <c r="U78" s="36"/>
-      <c r="V78" s="36"/>
-      <c r="W78" s="36"/>
-      <c r="X78" s="36"/>
-      <c r="Y78" s="36"/>
-      <c r="Z78" s="36"/>
-      <c r="AA78" s="36"/>
+      <c r="T78" s="35"/>
+      <c r="U78" s="35"/>
+      <c r="V78" s="35"/>
+      <c r="W78" s="35"/>
+      <c r="X78" s="35"/>
+      <c r="Y78" s="35"/>
+      <c r="Z78" s="35"/>
+      <c r="AA78" s="35"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B79" s="33"/>
-      <c r="C79" s="34"/>
+      <c r="A79" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B79" s="32"/>
+      <c r="C79" s="33"/>
       <c r="D79" s="25"/>
       <c r="E79" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F79" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G79" s="37"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="36"/>
-      <c r="L79" s="36"/>
-      <c r="M79" s="36"/>
-      <c r="N79" s="36"/>
-      <c r="O79" s="36"/>
-      <c r="P79" s="36"/>
-      <c r="Q79" s="36"/>
-      <c r="R79" s="36"/>
-      <c r="S79" s="36"/>
-      <c r="T79" s="36"/>
-      <c r="U79" s="36"/>
-      <c r="V79" s="36"/>
-      <c r="W79" s="36"/>
-      <c r="X79" s="36"/>
-      <c r="Y79" s="36"/>
-      <c r="Z79" s="36"/>
-      <c r="AA79" s="36"/>
+      <c r="F79" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G79" s="36"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35"/>
+      <c r="L79" s="35"/>
+      <c r="M79" s="35"/>
+      <c r="N79" s="35"/>
+      <c r="O79" s="35"/>
+      <c r="P79" s="35"/>
+      <c r="Q79" s="35"/>
+      <c r="R79" s="35"/>
+      <c r="S79" s="35"/>
+      <c r="T79" s="35"/>
+      <c r="U79" s="35"/>
+      <c r="V79" s="35"/>
+      <c r="W79" s="35"/>
+      <c r="X79" s="35"/>
+      <c r="Y79" s="35"/>
+      <c r="Z79" s="35"/>
+      <c r="AA79" s="35"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B80" s="33"/>
-      <c r="C80" s="34"/>
+      <c r="A80" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B80" s="32"/>
+      <c r="C80" s="33"/>
       <c r="D80" s="25"/>
       <c r="E80" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F80" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G80" s="37"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="36"/>
-      <c r="L80" s="36"/>
-      <c r="M80" s="36"/>
-      <c r="N80" s="36"/>
-      <c r="O80" s="36"/>
-      <c r="P80" s="36"/>
-      <c r="Q80" s="36"/>
-      <c r="R80" s="36"/>
-      <c r="S80" s="36"/>
-      <c r="T80" s="36"/>
-      <c r="U80" s="36"/>
-      <c r="V80" s="36"/>
-      <c r="W80" s="36"/>
-      <c r="X80" s="36"/>
-      <c r="Y80" s="36"/>
-      <c r="Z80" s="36"/>
-      <c r="AA80" s="36"/>
+      <c r="F80" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G80" s="36"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="35"/>
+      <c r="N80" s="35"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="35"/>
+      <c r="Q80" s="35"/>
+      <c r="R80" s="35"/>
+      <c r="S80" s="35"/>
+      <c r="T80" s="35"/>
+      <c r="U80" s="35"/>
+      <c r="V80" s="35"/>
+      <c r="W80" s="35"/>
+      <c r="X80" s="35"/>
+      <c r="Y80" s="35"/>
+      <c r="Z80" s="35"/>
+      <c r="AA80" s="35"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B81" s="33"/>
-      <c r="C81" s="34"/>
+      <c r="A81" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B81" s="32"/>
+      <c r="C81" s="33"/>
       <c r="D81" s="25"/>
       <c r="E81" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F81" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G81" s="37"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="36"/>
-      <c r="J81" s="36"/>
-      <c r="K81" s="36"/>
-      <c r="L81" s="36"/>
-      <c r="M81" s="36"/>
-      <c r="N81" s="36"/>
-      <c r="O81" s="36"/>
-      <c r="P81" s="36"/>
-      <c r="Q81" s="36"/>
-      <c r="R81" s="36"/>
-      <c r="S81" s="36"/>
-      <c r="T81" s="36"/>
-      <c r="U81" s="36"/>
-      <c r="V81" s="36"/>
-      <c r="W81" s="36"/>
-      <c r="X81" s="36"/>
-      <c r="Y81" s="36"/>
-      <c r="Z81" s="36"/>
-      <c r="AA81" s="36"/>
+      <c r="F81" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G81" s="36"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35"/>
+      <c r="L81" s="35"/>
+      <c r="M81" s="35"/>
+      <c r="N81" s="35"/>
+      <c r="O81" s="35"/>
+      <c r="P81" s="35"/>
+      <c r="Q81" s="35"/>
+      <c r="R81" s="35"/>
+      <c r="S81" s="35"/>
+      <c r="T81" s="35"/>
+      <c r="U81" s="35"/>
+      <c r="V81" s="35"/>
+      <c r="W81" s="35"/>
+      <c r="X81" s="35"/>
+      <c r="Y81" s="35"/>
+      <c r="Z81" s="35"/>
+      <c r="AA81" s="35"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B82" s="33"/>
-      <c r="C82" s="34"/>
+      <c r="A82" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B82" s="32"/>
+      <c r="C82" s="33"/>
       <c r="D82" s="25"/>
       <c r="E82" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F82" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G82" s="37"/>
-      <c r="H82" s="36"/>
-      <c r="I82" s="36"/>
-      <c r="J82" s="36"/>
-      <c r="K82" s="36"/>
-      <c r="L82" s="36"/>
-      <c r="M82" s="36"/>
-      <c r="N82" s="36"/>
-      <c r="O82" s="36"/>
-      <c r="P82" s="36"/>
-      <c r="Q82" s="36"/>
-      <c r="R82" s="36"/>
-      <c r="S82" s="36"/>
-      <c r="T82" s="36"/>
-      <c r="U82" s="36"/>
-      <c r="V82" s="36"/>
-      <c r="W82" s="36"/>
-      <c r="X82" s="36"/>
-      <c r="Y82" s="36"/>
-      <c r="Z82" s="36"/>
-      <c r="AA82" s="36"/>
+      <c r="F82" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G82" s="36"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="35"/>
+      <c r="N82" s="35"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="35"/>
+      <c r="Q82" s="35"/>
+      <c r="R82" s="35"/>
+      <c r="S82" s="35"/>
+      <c r="T82" s="35"/>
+      <c r="U82" s="35"/>
+      <c r="V82" s="35"/>
+      <c r="W82" s="35"/>
+      <c r="X82" s="35"/>
+      <c r="Y82" s="35"/>
+      <c r="Z82" s="35"/>
+      <c r="AA82" s="35"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B83" s="33"/>
-      <c r="C83" s="34"/>
+      <c r="A83" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B83" s="32"/>
+      <c r="C83" s="33"/>
       <c r="D83" s="25"/>
       <c r="E83" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F83" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G83" s="37"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="36"/>
-      <c r="K83" s="36"/>
-      <c r="L83" s="36"/>
-      <c r="M83" s="36"/>
-      <c r="N83" s="36"/>
-      <c r="O83" s="36"/>
-      <c r="P83" s="36"/>
-      <c r="Q83" s="36"/>
-      <c r="R83" s="36"/>
-      <c r="S83" s="36"/>
-      <c r="T83" s="36"/>
-      <c r="U83" s="36"/>
-      <c r="V83" s="36"/>
-      <c r="W83" s="36"/>
-      <c r="X83" s="36"/>
-      <c r="Y83" s="36"/>
-      <c r="Z83" s="36"/>
-      <c r="AA83" s="36"/>
+      <c r="F83" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G83" s="36"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="35"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="35"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35"/>
+      <c r="Q83" s="35"/>
+      <c r="R83" s="35"/>
+      <c r="S83" s="35"/>
+      <c r="T83" s="35"/>
+      <c r="U83" s="35"/>
+      <c r="V83" s="35"/>
+      <c r="W83" s="35"/>
+      <c r="X83" s="35"/>
+      <c r="Y83" s="35"/>
+      <c r="Z83" s="35"/>
+      <c r="AA83" s="35"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B84" s="33"/>
-      <c r="C84" s="34"/>
+      <c r="A84" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B84" s="32"/>
+      <c r="C84" s="33"/>
       <c r="D84" s="25"/>
       <c r="E84" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F84" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G84" s="37"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
-      <c r="J84" s="36"/>
-      <c r="K84" s="36"/>
-      <c r="L84" s="36"/>
-      <c r="M84" s="36"/>
-      <c r="N84" s="36"/>
-      <c r="O84" s="36"/>
-      <c r="P84" s="36"/>
-      <c r="Q84" s="36"/>
-      <c r="R84" s="36"/>
-      <c r="S84" s="36"/>
-      <c r="T84" s="36"/>
-      <c r="U84" s="36"/>
-      <c r="V84" s="36"/>
-      <c r="W84" s="36"/>
-      <c r="X84" s="36"/>
-      <c r="Y84" s="36"/>
-      <c r="Z84" s="36"/>
-      <c r="AA84" s="36"/>
+      <c r="F84" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G84" s="36"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+      <c r="J84" s="35"/>
+      <c r="K84" s="35"/>
+      <c r="L84" s="35"/>
+      <c r="M84" s="35"/>
+      <c r="N84" s="35"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="35"/>
+      <c r="Q84" s="35"/>
+      <c r="R84" s="35"/>
+      <c r="S84" s="35"/>
+      <c r="T84" s="35"/>
+      <c r="U84" s="35"/>
+      <c r="V84" s="35"/>
+      <c r="W84" s="35"/>
+      <c r="X84" s="35"/>
+      <c r="Y84" s="35"/>
+      <c r="Z84" s="35"/>
+      <c r="AA84" s="35"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B85" s="38"/>
-      <c r="C85" s="38"/>
+      <c r="A85" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
       <c r="D85" s="26"/>
       <c r="E85" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F85" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G85" s="37"/>
-      <c r="H85" s="36"/>
-      <c r="I85" s="36"/>
-      <c r="J85" s="36"/>
-      <c r="K85" s="36"/>
-      <c r="L85" s="36"/>
-      <c r="M85" s="36"/>
-      <c r="N85" s="36"/>
-      <c r="O85" s="36"/>
-      <c r="P85" s="36"/>
-      <c r="Q85" s="36"/>
-      <c r="R85" s="36"/>
-      <c r="S85" s="36"/>
-      <c r="T85" s="36"/>
-      <c r="U85" s="36"/>
-      <c r="V85" s="36"/>
-      <c r="W85" s="36"/>
-      <c r="X85" s="36"/>
-      <c r="Y85" s="36"/>
-      <c r="Z85" s="36"/>
-      <c r="AA85" s="36"/>
+      <c r="F85" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G85" s="36"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="35"/>
+      <c r="K85" s="35"/>
+      <c r="L85" s="35"/>
+      <c r="M85" s="35"/>
+      <c r="N85" s="35"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="35"/>
+      <c r="Q85" s="35"/>
+      <c r="R85" s="35"/>
+      <c r="S85" s="35"/>
+      <c r="T85" s="35"/>
+      <c r="U85" s="35"/>
+      <c r="V85" s="35"/>
+      <c r="W85" s="35"/>
+      <c r="X85" s="35"/>
+      <c r="Y85" s="35"/>
+      <c r="Z85" s="35"/>
+      <c r="AA85" s="35"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
+      <c r="A86" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
       <c r="D86" s="26"/>
       <c r="E86" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F86" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G86" s="37"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
-      <c r="J86" s="36"/>
-      <c r="K86" s="36"/>
-      <c r="L86" s="36"/>
-      <c r="M86" s="36"/>
-      <c r="N86" s="36"/>
-      <c r="O86" s="36"/>
-      <c r="P86" s="36"/>
-      <c r="Q86" s="36"/>
-      <c r="R86" s="36"/>
-      <c r="S86" s="36"/>
-      <c r="T86" s="36"/>
-      <c r="U86" s="36"/>
-      <c r="V86" s="36"/>
-      <c r="W86" s="36"/>
-      <c r="X86" s="36"/>
-      <c r="Y86" s="36"/>
-      <c r="Z86" s="36"/>
-      <c r="AA86" s="36"/>
+      <c r="F86" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G86" s="36"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="35"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="35"/>
+      <c r="N86" s="35"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="35"/>
+      <c r="Q86" s="35"/>
+      <c r="R86" s="35"/>
+      <c r="S86" s="35"/>
+      <c r="T86" s="35"/>
+      <c r="U86" s="35"/>
+      <c r="V86" s="35"/>
+      <c r="W86" s="35"/>
+      <c r="X86" s="35"/>
+      <c r="Y86" s="35"/>
+      <c r="Z86" s="35"/>
+      <c r="AA86" s="35"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B87" s="38"/>
-      <c r="C87" s="38"/>
+      <c r="A87" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
       <c r="D87" s="26"/>
       <c r="E87" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F87" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G87" s="37"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="36"/>
-      <c r="K87" s="36"/>
-      <c r="L87" s="36"/>
-      <c r="M87" s="36"/>
-      <c r="N87" s="36"/>
-      <c r="O87" s="36"/>
-      <c r="P87" s="36"/>
-      <c r="Q87" s="36"/>
-      <c r="R87" s="36"/>
-      <c r="S87" s="36"/>
-      <c r="T87" s="36"/>
-      <c r="U87" s="36"/>
-      <c r="V87" s="36"/>
-      <c r="W87" s="36"/>
-      <c r="X87" s="36"/>
-      <c r="Y87" s="36"/>
-      <c r="Z87" s="36"/>
-      <c r="AA87" s="36"/>
+      <c r="F87" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G87" s="36"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="35"/>
+      <c r="L87" s="35"/>
+      <c r="M87" s="35"/>
+      <c r="N87" s="35"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="35"/>
+      <c r="Q87" s="35"/>
+      <c r="R87" s="35"/>
+      <c r="S87" s="35"/>
+      <c r="T87" s="35"/>
+      <c r="U87" s="35"/>
+      <c r="V87" s="35"/>
+      <c r="W87" s="35"/>
+      <c r="X87" s="35"/>
+      <c r="Y87" s="35"/>
+      <c r="Z87" s="35"/>
+      <c r="AA87" s="35"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B88" s="38"/>
-      <c r="C88" s="38"/>
+      <c r="A88" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
       <c r="D88" s="26"/>
       <c r="E88" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F88" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G88" s="37"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="36"/>
-      <c r="K88" s="36"/>
-      <c r="L88" s="36"/>
-      <c r="M88" s="36"/>
-      <c r="N88" s="36"/>
-      <c r="O88" s="36"/>
-      <c r="P88" s="36"/>
-      <c r="Q88" s="36"/>
-      <c r="R88" s="36"/>
-      <c r="S88" s="36"/>
-      <c r="T88" s="36"/>
-      <c r="U88" s="36"/>
-      <c r="V88" s="36"/>
-      <c r="W88" s="36"/>
-      <c r="X88" s="36"/>
-      <c r="Y88" s="36"/>
-      <c r="Z88" s="36"/>
-      <c r="AA88" s="36"/>
+      <c r="F88" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G88" s="36"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="35"/>
+      <c r="J88" s="35"/>
+      <c r="K88" s="35"/>
+      <c r="L88" s="35"/>
+      <c r="M88" s="35"/>
+      <c r="N88" s="35"/>
+      <c r="O88" s="35"/>
+      <c r="P88" s="35"/>
+      <c r="Q88" s="35"/>
+      <c r="R88" s="35"/>
+      <c r="S88" s="35"/>
+      <c r="T88" s="35"/>
+      <c r="U88" s="35"/>
+      <c r="V88" s="35"/>
+      <c r="W88" s="35"/>
+      <c r="X88" s="35"/>
+      <c r="Y88" s="35"/>
+      <c r="Z88" s="35"/>
+      <c r="AA88" s="35"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B89" s="38"/>
-      <c r="C89" s="38"/>
+      <c r="A89" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B89" s="37"/>
+      <c r="C89" s="37"/>
       <c r="D89" s="26"/>
       <c r="E89" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F89" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G89" s="37"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
-      <c r="J89" s="36"/>
-      <c r="K89" s="36"/>
-      <c r="L89" s="36"/>
-      <c r="M89" s="36"/>
-      <c r="N89" s="36"/>
-      <c r="O89" s="36"/>
-      <c r="P89" s="36"/>
-      <c r="Q89" s="36"/>
-      <c r="R89" s="36"/>
-      <c r="S89" s="36"/>
-      <c r="T89" s="36"/>
-      <c r="U89" s="36"/>
-      <c r="V89" s="36"/>
-      <c r="W89" s="36"/>
-      <c r="X89" s="36"/>
-      <c r="Y89" s="36"/>
-      <c r="Z89" s="36"/>
-      <c r="AA89" s="36"/>
+      <c r="F89" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G89" s="36"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="35"/>
+      <c r="J89" s="35"/>
+      <c r="K89" s="35"/>
+      <c r="L89" s="35"/>
+      <c r="M89" s="35"/>
+      <c r="N89" s="35"/>
+      <c r="O89" s="35"/>
+      <c r="P89" s="35"/>
+      <c r="Q89" s="35"/>
+      <c r="R89" s="35"/>
+      <c r="S89" s="35"/>
+      <c r="T89" s="35"/>
+      <c r="U89" s="35"/>
+      <c r="V89" s="35"/>
+      <c r="W89" s="35"/>
+      <c r="X89" s="35"/>
+      <c r="Y89" s="35"/>
+      <c r="Z89" s="35"/>
+      <c r="AA89" s="35"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B90" s="38"/>
-      <c r="C90" s="38"/>
+      <c r="A90" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B90" s="37"/>
+      <c r="C90" s="37"/>
       <c r="D90" s="26"/>
       <c r="E90" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F90" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G90" s="37"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
-      <c r="J90" s="36"/>
-      <c r="K90" s="36"/>
-      <c r="L90" s="36"/>
-      <c r="M90" s="36"/>
-      <c r="N90" s="36"/>
-      <c r="O90" s="36"/>
-      <c r="P90" s="36"/>
-      <c r="Q90" s="36"/>
-      <c r="R90" s="36"/>
-      <c r="S90" s="36"/>
-      <c r="T90" s="36"/>
-      <c r="U90" s="36"/>
-      <c r="V90" s="36"/>
-      <c r="W90" s="36"/>
-      <c r="X90" s="36"/>
-      <c r="Y90" s="36"/>
-      <c r="Z90" s="36"/>
-      <c r="AA90" s="36"/>
+      <c r="F90" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G90" s="36"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="35"/>
+      <c r="J90" s="35"/>
+      <c r="K90" s="35"/>
+      <c r="L90" s="35"/>
+      <c r="M90" s="35"/>
+      <c r="N90" s="35"/>
+      <c r="O90" s="35"/>
+      <c r="P90" s="35"/>
+      <c r="Q90" s="35"/>
+      <c r="R90" s="35"/>
+      <c r="S90" s="35"/>
+      <c r="T90" s="35"/>
+      <c r="U90" s="35"/>
+      <c r="V90" s="35"/>
+      <c r="W90" s="35"/>
+      <c r="X90" s="35"/>
+      <c r="Y90" s="35"/>
+      <c r="Z90" s="35"/>
+      <c r="AA90" s="35"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B91" s="38"/>
-      <c r="C91" s="38"/>
+      <c r="A91" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
       <c r="D91" s="26"/>
       <c r="E91" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F91" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G91" s="37"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="36"/>
-      <c r="L91" s="36"/>
-      <c r="M91" s="36"/>
-      <c r="N91" s="36"/>
-      <c r="O91" s="36"/>
-      <c r="P91" s="36"/>
-      <c r="Q91" s="36"/>
-      <c r="R91" s="36"/>
-      <c r="S91" s="36"/>
-      <c r="T91" s="36"/>
-      <c r="U91" s="36"/>
-      <c r="V91" s="36"/>
-      <c r="W91" s="36"/>
-      <c r="X91" s="36"/>
-      <c r="Y91" s="36"/>
-      <c r="Z91" s="36"/>
-      <c r="AA91" s="36"/>
+      <c r="F91" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G91" s="36"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="35"/>
+      <c r="J91" s="35"/>
+      <c r="K91" s="35"/>
+      <c r="L91" s="35"/>
+      <c r="M91" s="35"/>
+      <c r="N91" s="35"/>
+      <c r="O91" s="35"/>
+      <c r="P91" s="35"/>
+      <c r="Q91" s="35"/>
+      <c r="R91" s="35"/>
+      <c r="S91" s="35"/>
+      <c r="T91" s="35"/>
+      <c r="U91" s="35"/>
+      <c r="V91" s="35"/>
+      <c r="W91" s="35"/>
+      <c r="X91" s="35"/>
+      <c r="Y91" s="35"/>
+      <c r="Z91" s="35"/>
+      <c r="AA91" s="35"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B92" s="38"/>
-      <c r="C92" s="38"/>
+      <c r="A92" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B92" s="37"/>
+      <c r="C92" s="37"/>
       <c r="D92" s="26"/>
       <c r="E92" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F92" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G92" s="37"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="36"/>
-      <c r="K92" s="36"/>
-      <c r="L92" s="36"/>
-      <c r="M92" s="36"/>
-      <c r="N92" s="36"/>
-      <c r="O92" s="36"/>
-      <c r="P92" s="36"/>
-      <c r="Q92" s="36"/>
-      <c r="R92" s="36"/>
-      <c r="S92" s="36"/>
-      <c r="T92" s="36"/>
-      <c r="U92" s="36"/>
-      <c r="V92" s="36"/>
-      <c r="W92" s="36"/>
-      <c r="X92" s="36"/>
-      <c r="Y92" s="36"/>
-      <c r="Z92" s="36"/>
-      <c r="AA92" s="36"/>
+      <c r="F92" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G92" s="36"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="35"/>
+      <c r="J92" s="35"/>
+      <c r="K92" s="35"/>
+      <c r="L92" s="35"/>
+      <c r="M92" s="35"/>
+      <c r="N92" s="35"/>
+      <c r="O92" s="35"/>
+      <c r="P92" s="35"/>
+      <c r="Q92" s="35"/>
+      <c r="R92" s="35"/>
+      <c r="S92" s="35"/>
+      <c r="T92" s="35"/>
+      <c r="U92" s="35"/>
+      <c r="V92" s="35"/>
+      <c r="W92" s="35"/>
+      <c r="X92" s="35"/>
+      <c r="Y92" s="35"/>
+      <c r="Z92" s="35"/>
+      <c r="AA92" s="35"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B93" s="38"/>
-      <c r="C93" s="38"/>
+      <c r="A93" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B93" s="37"/>
+      <c r="C93" s="37"/>
       <c r="D93" s="26"/>
       <c r="E93" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F93" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G93" s="37"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
-      <c r="J93" s="36"/>
-      <c r="K93" s="36"/>
-      <c r="L93" s="36"/>
-      <c r="M93" s="36"/>
-      <c r="N93" s="36"/>
-      <c r="O93" s="36"/>
-      <c r="P93" s="36"/>
-      <c r="Q93" s="36"/>
-      <c r="R93" s="36"/>
-      <c r="S93" s="36"/>
-      <c r="T93" s="36"/>
-      <c r="U93" s="36"/>
-      <c r="V93" s="36"/>
-      <c r="W93" s="36"/>
-      <c r="X93" s="36"/>
-      <c r="Y93" s="36"/>
-      <c r="Z93" s="36"/>
-      <c r="AA93" s="36"/>
+      <c r="F93" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G93" s="36"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="35"/>
+      <c r="K93" s="35"/>
+      <c r="L93" s="35"/>
+      <c r="M93" s="35"/>
+      <c r="N93" s="35"/>
+      <c r="O93" s="35"/>
+      <c r="P93" s="35"/>
+      <c r="Q93" s="35"/>
+      <c r="R93" s="35"/>
+      <c r="S93" s="35"/>
+      <c r="T93" s="35"/>
+      <c r="U93" s="35"/>
+      <c r="V93" s="35"/>
+      <c r="W93" s="35"/>
+      <c r="X93" s="35"/>
+      <c r="Y93" s="35"/>
+      <c r="Z93" s="35"/>
+      <c r="AA93" s="35"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B94" s="38"/>
-      <c r="C94" s="38"/>
+      <c r="A94" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B94" s="37"/>
+      <c r="C94" s="37"/>
       <c r="D94" s="26"/>
       <c r="E94" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F94" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G94" s="37"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
-      <c r="J94" s="36"/>
-      <c r="K94" s="36"/>
-      <c r="L94" s="36"/>
-      <c r="M94" s="36"/>
-      <c r="N94" s="36"/>
-      <c r="O94" s="36"/>
-      <c r="P94" s="36"/>
-      <c r="Q94" s="36"/>
-      <c r="R94" s="36"/>
-      <c r="S94" s="36"/>
-      <c r="T94" s="36"/>
-      <c r="U94" s="36"/>
-      <c r="V94" s="36"/>
-      <c r="W94" s="36"/>
-      <c r="X94" s="36"/>
-      <c r="Y94" s="36"/>
-      <c r="Z94" s="36"/>
-      <c r="AA94" s="36"/>
+      <c r="F94" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G94" s="36"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="35"/>
+      <c r="J94" s="35"/>
+      <c r="K94" s="35"/>
+      <c r="L94" s="35"/>
+      <c r="M94" s="35"/>
+      <c r="N94" s="35"/>
+      <c r="O94" s="35"/>
+      <c r="P94" s="35"/>
+      <c r="Q94" s="35"/>
+      <c r="R94" s="35"/>
+      <c r="S94" s="35"/>
+      <c r="T94" s="35"/>
+      <c r="U94" s="35"/>
+      <c r="V94" s="35"/>
+      <c r="W94" s="35"/>
+      <c r="X94" s="35"/>
+      <c r="Y94" s="35"/>
+      <c r="Z94" s="35"/>
+      <c r="AA94" s="35"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B95" s="38"/>
-      <c r="C95" s="38"/>
+      <c r="A95" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B95" s="37"/>
+      <c r="C95" s="37"/>
       <c r="D95" s="26"/>
       <c r="E95" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F95" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G95" s="37"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
-      <c r="J95" s="36"/>
-      <c r="K95" s="36"/>
-      <c r="L95" s="36"/>
-      <c r="M95" s="36"/>
-      <c r="N95" s="36"/>
-      <c r="O95" s="36"/>
-      <c r="P95" s="36"/>
-      <c r="Q95" s="36"/>
-      <c r="R95" s="36"/>
-      <c r="S95" s="36"/>
-      <c r="T95" s="36"/>
-      <c r="U95" s="36"/>
-      <c r="V95" s="36"/>
-      <c r="W95" s="36"/>
-      <c r="X95" s="36"/>
-      <c r="Y95" s="36"/>
-      <c r="Z95" s="36"/>
-      <c r="AA95" s="36"/>
+      <c r="F95" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G95" s="36"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35"/>
+      <c r="J95" s="35"/>
+      <c r="K95" s="35"/>
+      <c r="L95" s="35"/>
+      <c r="M95" s="35"/>
+      <c r="N95" s="35"/>
+      <c r="O95" s="35"/>
+      <c r="P95" s="35"/>
+      <c r="Q95" s="35"/>
+      <c r="R95" s="35"/>
+      <c r="S95" s="35"/>
+      <c r="T95" s="35"/>
+      <c r="U95" s="35"/>
+      <c r="V95" s="35"/>
+      <c r="W95" s="35"/>
+      <c r="X95" s="35"/>
+      <c r="Y95" s="35"/>
+      <c r="Z95" s="35"/>
+      <c r="AA95" s="35"/>
     </row>
     <row r="96" ht="15.75" customHeight="1"/>
     <row r="97" ht="15.75" customHeight="1"/>
